--- a/訓練資料集(雙面外套).xlsx
+++ b/訓練資料集(雙面外套).xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albertlai\Desktop\python\91APP-AI-Image-Coding\訓練資料集\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laiwei/Desktop/91APP_Image_Coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C04BEC-C7DC-4932-8F94-CB7EC3C7377F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB51EA-4F41-694A-BB54-38285FE064D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$D$1:$D$1649</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$D$1:$D$1556</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="370">
   <si>
     <t>URL</t>
   </si>
@@ -1171,318 +1171,6 @@
     <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IX5956_D2_Model_eCom.jpg</t>
   </si>
   <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HG6899_6.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HT1102_B_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HY1240_HM2_ECOM.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN3635_B_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN7289_HM2_ECOM.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IT7752_HM7_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HN9269_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HN9271_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA1989_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA1990_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA1991_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3415_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3416_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3417_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3422_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3423_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3424_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3425_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3426_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3427_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3428_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3429_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3430_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3434_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3456_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA3457_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IJ0943_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IJ5550_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IL2152_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN4241_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN4243_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN4247_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN4249_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/H44789_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/H44790_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/H44798_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/H44800_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/H44802_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/H63044_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HM5036_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HM5038_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HT4734_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HZ8820_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HZ8825_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IA1438_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IL2035_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IL4619_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN4335_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN4342_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN4353_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN7289_HM1_ECOM.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN8701_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IP7687_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IP7695_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IP7698_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IQ2137_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IR6249_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IR6265_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IR7106_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IR7108_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IT7522_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IT7524_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IV5625_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IV5644_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IV5836_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IV7737_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IV8221_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IV8223_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IV8224_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IZ3121_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IZ3122_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IZ3126_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IZ3128_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/JD9794_SUPS_Unisex_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/H59271_HM7_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HI1199_2.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HY0643_HM7_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IS0267_HM5_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IT7752_HM5_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/JE7849_HM3_ECOM.jpeg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/GQ4153_01.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/H59271_HM4_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HG1934_W_eCom-1.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HG6899_2.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HG6904_3.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HL1995_02.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN3613_W_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN3635_D2_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN3635_F_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IT8268_W_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IW9891_W_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/H59271_HM3_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HG6904_4.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/HY0643_HM3_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IB5095_B_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IK5716_HM3_ECOM.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN3613_B_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN5129_HM3_ECOM_2.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IN9172_HM1_ECOM.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IS0267_HM3_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IT7528_B_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IT7752_HM3_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IT8268_B_Model_eCom.jpg</t>
-  </si>
-  <si>
-    <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IW9891_B_Model_eCom.jpg</t>
-  </si>
-  <si>
     <t>https://tpimage.91app.com/adidas/AI Sample/套裝/IL4797_D2_Model_eCom.jpg</t>
   </si>
   <si>
@@ -1566,14 +1254,6 @@
   </si>
   <si>
     <t>雙面外套模特內層</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模特背面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>情境男女模特正面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2237,20 +1917,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1649"/>
+  <dimension ref="A1:E1556"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I393" sqref="I393"/>
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="72.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="11"/>
-    <col min="4" max="4" width="25.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6328125" style="11"/>
+    <col min="1" max="1" width="72.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="11"/>
+    <col min="4" max="4" width="25.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.6640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
@@ -2371,7 +2051,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E7" s="11" cm="1">
         <f t="array" ref="E7">IF(C7="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C7)*(工作表2!B:B=D7), 0)),""))</f>
@@ -2389,7 +2069,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E8" s="11" cm="1">
         <f t="array" ref="E8">IF(C8="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C8)*(工作表2!B:B=D8), 0)),""))</f>
@@ -2407,7 +2087,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E9" s="11" cm="1">
         <f t="array" ref="E9">IF(C9="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C9)*(工作表2!B:B=D9), 0)),""))</f>
@@ -2425,7 +2105,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E10" s="11" cm="1">
         <f t="array" ref="E10">IF(C10="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C10)*(工作表2!B:B=D10), 0)),""))</f>
@@ -2443,7 +2123,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E11" s="11" cm="1">
         <f t="array" ref="E11">IF(C11="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C11)*(工作表2!B:B=D11), 0)),""))</f>
@@ -2452,7 +2132,7 @@
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>47</v>
@@ -2461,7 +2141,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E12" s="11" cm="1">
         <f t="array" ref="E12">IF(C12="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C12)*(工作表2!B:B=D12), 0)),""))</f>
@@ -2479,7 +2159,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E13" s="11" cm="1">
         <f t="array" ref="E13">IF(C13="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C13)*(工作表2!B:B=D13), 0)),""))</f>
@@ -2497,7 +2177,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E14" s="11" cm="1">
         <f t="array" ref="E14">IF(C14="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C14)*(工作表2!B:B=D14), 0)),""))</f>
@@ -2515,7 +2195,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E15" s="11" cm="1">
         <f t="array" ref="E15">IF(C15="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C15)*(工作表2!B:B=D15), 0)),""))</f>
@@ -2533,7 +2213,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E16" s="11" cm="1">
         <f t="array" ref="E16">IF(C16="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C16)*(工作表2!B:B=D16), 0)),""))</f>
@@ -2551,7 +2231,7 @@
         <v>49</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E17" s="11" cm="1">
         <f t="array" ref="E17">IF(C17="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C17)*(工作表2!B:B=D17), 0)),""))</f>
@@ -2569,7 +2249,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E18" s="11" cm="1">
         <f t="array" ref="E18">IF(C18="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C18)*(工作表2!B:B=D18), 0)),""))</f>
@@ -2587,7 +2267,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E19" s="11" cm="1">
         <f t="array" ref="E19">IF(C19="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C19)*(工作表2!B:B=D19), 0)),""))</f>
@@ -2605,7 +2285,7 @@
         <v>49</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E20" s="11" cm="1">
         <f t="array" ref="E20">IF(C20="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C20)*(工作表2!B:B=D20), 0)),""))</f>
@@ -2623,7 +2303,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E21" s="11" cm="1">
         <f t="array" ref="E21">IF(C21="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C21)*(工作表2!B:B=D21), 0)),""))</f>
@@ -2641,7 +2321,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E22" s="11" cm="1">
         <f t="array" ref="E22">IF(C22="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C22)*(工作表2!B:B=D22), 0)),""))</f>
@@ -2659,7 +2339,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E23" s="11" cm="1">
         <f t="array" ref="E23">IF(C23="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C23)*(工作表2!B:B=D23), 0)),""))</f>
@@ -2677,7 +2357,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E24" s="11" cm="1">
         <f t="array" ref="E24">IF(C24="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C24)*(工作表2!B:B=D24), 0)),""))</f>
@@ -2695,7 +2375,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E25" s="11" cm="1">
         <f t="array" ref="E25">IF(C25="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C25)*(工作表2!B:B=D25), 0)),""))</f>
@@ -2713,7 +2393,7 @@
         <v>49</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E26" s="11" cm="1">
         <f t="array" ref="E26">IF(C26="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C26)*(工作表2!B:B=D26), 0)),""))</f>
@@ -2731,7 +2411,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E27" s="11" cm="1">
         <f t="array" ref="E27">IF(C27="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C27)*(工作表2!B:B=D27), 0)),""))</f>
@@ -2749,7 +2429,7 @@
         <v>49</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E28" s="11" cm="1">
         <f t="array" ref="E28">IF(C28="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C28)*(工作表2!B:B=D28), 0)),""))</f>
@@ -2767,7 +2447,7 @@
         <v>49</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E29" s="11" cm="1">
         <f t="array" ref="E29">IF(C29="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C29)*(工作表2!B:B=D29), 0)),""))</f>
@@ -2785,7 +2465,7 @@
         <v>49</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="E30" s="11" cm="1">
         <f t="array" ref="E30">IF(C30="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C30)*(工作表2!B:B=D30), 0)),""))</f>
@@ -4081,7 +3761,7 @@
         <v>49</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E102" s="11" cm="1">
         <f t="array" ref="E102">IF(C102="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C102)*(工作表2!B:B=D102), 0)),""))</f>
@@ -4099,7 +3779,7 @@
         <v>49</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E103" s="11" cm="1">
         <f t="array" ref="E103">IF(C103="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C103)*(工作表2!B:B=D103), 0)),""))</f>
@@ -4117,7 +3797,7 @@
         <v>49</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E104" s="11" cm="1">
         <f t="array" ref="E104">IF(C104="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C104)*(工作表2!B:B=D104), 0)),""))</f>
@@ -4135,7 +3815,7 @@
         <v>49</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E105" s="11" cm="1">
         <f t="array" ref="E105">IF(C105="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C105)*(工作表2!B:B=D105), 0)),""))</f>
@@ -4153,7 +3833,7 @@
         <v>49</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E106" s="11" cm="1">
         <f t="array" ref="E106">IF(C106="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C106)*(工作表2!B:B=D106), 0)),""))</f>
@@ -4171,7 +3851,7 @@
         <v>49</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E107" s="11" cm="1">
         <f t="array" ref="E107">IF(C107="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C107)*(工作表2!B:B=D107), 0)),""))</f>
@@ -4189,7 +3869,7 @@
         <v>49</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E108" s="11" cm="1">
         <f t="array" ref="E108">IF(C108="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C108)*(工作表2!B:B=D108), 0)),""))</f>
@@ -4207,7 +3887,7 @@
         <v>49</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E109" s="11" cm="1">
         <f t="array" ref="E109">IF(C109="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C109)*(工作表2!B:B=D109), 0)),""))</f>
@@ -4225,7 +3905,7 @@
         <v>49</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E110" s="11" cm="1">
         <f t="array" ref="E110">IF(C110="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C110)*(工作表2!B:B=D110), 0)),""))</f>
@@ -4243,7 +3923,7 @@
         <v>49</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E111" s="11" cm="1">
         <f t="array" ref="E111">IF(C111="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C111)*(工作表2!B:B=D111), 0)),""))</f>
@@ -4261,7 +3941,7 @@
         <v>49</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E112" s="11" cm="1">
         <f t="array" ref="E112">IF(C112="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C112)*(工作表2!B:B=D112), 0)),""))</f>
@@ -4279,7 +3959,7 @@
         <v>49</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E113" s="11" cm="1">
         <f t="array" ref="E113">IF(C113="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C113)*(工作表2!B:B=D113), 0)),""))</f>
@@ -4297,7 +3977,7 @@
         <v>49</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E114" s="11" cm="1">
         <f t="array" ref="E114">IF(C114="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C114)*(工作表2!B:B=D114), 0)),""))</f>
@@ -4315,7 +3995,7 @@
         <v>49</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E115" s="11" cm="1">
         <f t="array" ref="E115">IF(C115="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C115)*(工作表2!B:B=D115), 0)),""))</f>
@@ -4333,7 +4013,7 @@
         <v>49</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E116" s="11" cm="1">
         <f t="array" ref="E116">IF(C116="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C116)*(工作表2!B:B=D116), 0)),""))</f>
@@ -4351,7 +4031,7 @@
         <v>49</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E117" s="11" cm="1">
         <f t="array" ref="E117">IF(C117="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C117)*(工作表2!B:B=D117), 0)),""))</f>
@@ -4369,7 +4049,7 @@
         <v>49</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E118" s="11" cm="1">
         <f t="array" ref="E118">IF(C118="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C118)*(工作表2!B:B=D118), 0)),""))</f>
@@ -4387,7 +4067,7 @@
         <v>49</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E119" s="11" cm="1">
         <f t="array" ref="E119">IF(C119="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C119)*(工作表2!B:B=D119), 0)),""))</f>
@@ -4405,7 +4085,7 @@
         <v>49</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="E120" s="11" cm="1">
         <f t="array" ref="E120">IF(C120="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C120)*(工作表2!B:B=D120), 0)),""))</f>
@@ -6519,26 +6199,26 @@
       </c>
     </row>
     <row r="238" spans="1:5" ht="20" customHeight="1">
-      <c r="A238" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B238" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D238" s="11" t="s">
-        <v>11</v>
+      <c r="A238" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B238" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C238" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E238" s="11" cm="1">
         <f t="array" ref="E238">IF(C238="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C238)*(工作表2!B:B=D238), 0)),""))</f>
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="20" customHeight="1">
-      <c r="A239" s="2" t="s">
-        <v>305</v>
+      <c r="A239" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="B239" s="11" t="s">
         <v>47</v>
@@ -6546,179 +6226,179 @@
       <c r="C239" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D239" s="24" t="s">
-        <v>436</v>
+      <c r="D239" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="E239" s="11" cm="1">
         <f t="array" ref="E239">IF(C239="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C239)*(工作表2!B:B=D239), 0)),""))</f>
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="20" customHeight="1">
-      <c r="A240" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B240" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C240" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D240" s="11" t="s">
-        <v>11</v>
+      <c r="A240" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B240" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C240" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E240" s="11" cm="1">
         <f t="array" ref="E240">IF(C240="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C240)*(工作表2!B:B=D240), 0)),""))</f>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="20" customHeight="1">
-      <c r="A241" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B241" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D241" s="11" t="s">
-        <v>11</v>
+      <c r="A241" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B241" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C241" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D241" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="E241" s="11" cm="1">
         <f t="array" ref="E241">IF(C241="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C241)*(工作表2!B:B=D241), 0)),""))</f>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="20" customHeight="1">
-      <c r="A242" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B242" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C242" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D242" s="11" t="s">
-        <v>11</v>
+      <c r="A242" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B242" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C242" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E242" s="11" cm="1">
         <f t="array" ref="E242">IF(C242="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C242)*(工作表2!B:B=D242), 0)),""))</f>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="20" customHeight="1">
-      <c r="A243" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B243" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C243" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D243" s="11" t="s">
-        <v>11</v>
+      <c r="A243" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B243" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C243" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E243" s="11" cm="1">
         <f t="array" ref="E243">IF(C243="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C243)*(工作表2!B:B=D243), 0)),""))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="20" customHeight="1">
-      <c r="A244" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B244" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D244" s="24" t="s">
-        <v>437</v>
+      <c r="A244" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B244" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C244" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E244" s="11" cm="1">
         <f t="array" ref="E244">IF(C244="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C244)*(工作表2!B:B=D244), 0)),""))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="20" customHeight="1">
+      <c r="A245" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B245" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C245" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="20" customHeight="1">
-      <c r="A245" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B245" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D245" s="11" t="s">
-        <v>7</v>
       </c>
       <c r="E245" s="11" cm="1">
         <f t="array" ref="E245">IF(C245="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C245)*(工作表2!B:B=D245), 0)),""))</f>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="20" customHeight="1">
-      <c r="A246" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B246" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D246" s="11" t="s">
-        <v>7</v>
+      <c r="A246" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B246" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C246" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E246" s="11" cm="1">
         <f t="array" ref="E246">IF(C246="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C246)*(工作表2!B:B=D246), 0)),""))</f>
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="20" customHeight="1">
-      <c r="A247" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B247" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C247" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D247" s="11" t="s">
-        <v>7</v>
+      <c r="A247" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B247" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C247" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E247" s="11" cm="1">
         <f t="array" ref="E247">IF(C247="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C247)*(工作表2!B:B=D247), 0)),""))</f>
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="20" customHeight="1">
-      <c r="A248" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B248" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C248" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D248" s="11" t="s">
-        <v>7</v>
+      <c r="A248" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B248" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C248" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E248" s="11" cm="1">
         <f t="array" ref="E248">IF(C248="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C248)*(工作表2!B:B=D248), 0)),""))</f>
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="20" customHeight="1">
       <c r="A249" s="2" t="s">
-        <v>315</v>
+        <v>46</v>
       </c>
       <c r="B249" s="11" t="s">
         <v>47</v>
@@ -6726,17 +6406,17 @@
       <c r="C249" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D249" s="11" t="s">
-        <v>7</v>
+      <c r="D249" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E249" s="11" cm="1">
         <f t="array" ref="E249">IF(C249="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C249)*(工作表2!B:B=D249), 0)),""))</f>
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="20" customHeight="1">
       <c r="A250" s="2" t="s">
-        <v>316</v>
+        <v>46</v>
       </c>
       <c r="B250" s="11" t="s">
         <v>47</v>
@@ -6744,17 +6424,17 @@
       <c r="C250" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D250" s="11" t="s">
-        <v>7</v>
+      <c r="D250" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E250" s="11" cm="1">
         <f t="array" ref="E250">IF(C250="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C250)*(工作表2!B:B=D250), 0)),""))</f>
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="20" customHeight="1">
       <c r="A251" s="2" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
       <c r="B251" s="11" t="s">
         <v>47</v>
@@ -6762,17 +6442,17 @@
       <c r="C251" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D251" s="11" t="s">
-        <v>7</v>
+      <c r="D251" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E251" s="11" cm="1">
         <f t="array" ref="E251">IF(C251="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C251)*(工作表2!B:B=D251), 0)),""))</f>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="20" customHeight="1">
       <c r="A252" s="2" t="s">
-        <v>318</v>
+        <v>46</v>
       </c>
       <c r="B252" s="11" t="s">
         <v>47</v>
@@ -6780,17 +6460,17 @@
       <c r="C252" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D252" s="11" t="s">
-        <v>7</v>
+      <c r="D252" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E252" s="11" cm="1">
         <f t="array" ref="E252">IF(C252="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C252)*(工作表2!B:B=D252), 0)),""))</f>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="20" customHeight="1">
       <c r="A253" s="2" t="s">
-        <v>319</v>
+        <v>46</v>
       </c>
       <c r="B253" s="11" t="s">
         <v>47</v>
@@ -6798,17 +6478,17 @@
       <c r="C253" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D253" s="11" t="s">
-        <v>7</v>
+      <c r="D253" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E253" s="11" cm="1">
         <f t="array" ref="E253">IF(C253="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C253)*(工作表2!B:B=D253), 0)),""))</f>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="20" customHeight="1">
       <c r="A254" s="2" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="B254" s="11" t="s">
         <v>47</v>
@@ -6816,17 +6496,17 @@
       <c r="C254" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D254" s="11" t="s">
-        <v>7</v>
+      <c r="D254" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E254" s="11" cm="1">
         <f t="array" ref="E254">IF(C254="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C254)*(工作表2!B:B=D254), 0)),""))</f>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="20" customHeight="1">
       <c r="A255" s="2" t="s">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="B255" s="11" t="s">
         <v>47</v>
@@ -6834,17 +6514,17 @@
       <c r="C255" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D255" s="11" t="s">
-        <v>7</v>
+      <c r="D255" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E255" s="11" cm="1">
         <f t="array" ref="E255">IF(C255="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C255)*(工作表2!B:B=D255), 0)),""))</f>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="20" customHeight="1">
       <c r="A256" s="2" t="s">
-        <v>322</v>
+        <v>46</v>
       </c>
       <c r="B256" s="11" t="s">
         <v>47</v>
@@ -6852,17 +6532,17 @@
       <c r="C256" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D256" s="11" t="s">
-        <v>7</v>
+      <c r="D256" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E256" s="11" cm="1">
         <f t="array" ref="E256">IF(C256="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C256)*(工作表2!B:B=D256), 0)),""))</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="20" customHeight="1">
       <c r="A257" s="2" t="s">
-        <v>323</v>
+        <v>46</v>
       </c>
       <c r="B257" s="11" t="s">
         <v>47</v>
@@ -6870,17 +6550,17 @@
       <c r="C257" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D257" s="11" t="s">
-        <v>7</v>
+      <c r="D257" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E257" s="11" cm="1">
         <f t="array" ref="E257">IF(C257="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C257)*(工作表2!B:B=D257), 0)),""))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="20" customHeight="1">
       <c r="A258" s="2" t="s">
-        <v>324</v>
+        <v>46</v>
       </c>
       <c r="B258" s="11" t="s">
         <v>47</v>
@@ -6888,17 +6568,17 @@
       <c r="C258" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D258" s="11" t="s">
-        <v>7</v>
+      <c r="D258" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E258" s="11" cm="1">
         <f t="array" ref="E258">IF(C258="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C258)*(工作表2!B:B=D258), 0)),""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="20" customHeight="1">
       <c r="A259" s="2" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="B259" s="11" t="s">
         <v>47</v>
@@ -6907,16 +6587,16 @@
         <v>49</v>
       </c>
       <c r="D259" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E259" s="11" cm="1">
         <f t="array" ref="E259">IF(C259="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C259)*(工作表2!B:B=D259), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="20" customHeight="1">
       <c r="A260" s="2" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="B260" s="11" t="s">
         <v>47</v>
@@ -6925,16 +6605,16 @@
         <v>49</v>
       </c>
       <c r="D260" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E260" s="11" cm="1">
         <f t="array" ref="E260">IF(C260="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C260)*(工作表2!B:B=D260), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="20" customHeight="1">
       <c r="A261" s="2" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="B261" s="11" t="s">
         <v>47</v>
@@ -6943,16 +6623,16 @@
         <v>49</v>
       </c>
       <c r="D261" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E261" s="11" cm="1">
         <f t="array" ref="E261">IF(C261="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C261)*(工作表2!B:B=D261), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="20" customHeight="1">
       <c r="A262" s="2" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="B262" s="11" t="s">
         <v>47</v>
@@ -6961,16 +6641,16 @@
         <v>49</v>
       </c>
       <c r="D262" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E262" s="11" cm="1">
         <f t="array" ref="E262">IF(C262="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C262)*(工作表2!B:B=D262), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="20" customHeight="1">
       <c r="A263" s="2" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="B263" s="11" t="s">
         <v>47</v>
@@ -6979,16 +6659,16 @@
         <v>49</v>
       </c>
       <c r="D263" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E263" s="11" cm="1">
         <f t="array" ref="E263">IF(C263="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C263)*(工作表2!B:B=D263), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="20" customHeight="1">
       <c r="A264" s="2" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="B264" s="11" t="s">
         <v>47</v>
@@ -6997,16 +6677,16 @@
         <v>49</v>
       </c>
       <c r="D264" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E264" s="11" cm="1">
         <f t="array" ref="E264">IF(C264="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C264)*(工作表2!B:B=D264), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="20" customHeight="1">
       <c r="A265" s="2" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B265" s="11" t="s">
         <v>47</v>
@@ -7015,16 +6695,16 @@
         <v>49</v>
       </c>
       <c r="D265" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E265" s="11" cm="1">
         <f t="array" ref="E265">IF(C265="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C265)*(工作表2!B:B=D265), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="20" customHeight="1">
       <c r="A266" s="2" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B266" s="11" t="s">
         <v>47</v>
@@ -7033,16 +6713,16 @@
         <v>49</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E266" s="11" cm="1">
         <f t="array" ref="E266">IF(C266="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C266)*(工作表2!B:B=D266), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="20" customHeight="1">
       <c r="A267" s="2" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="B267" s="11" t="s">
         <v>47</v>
@@ -7051,16 +6731,16 @@
         <v>49</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E267" s="11" cm="1">
         <f t="array" ref="E267">IF(C267="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C267)*(工作表2!B:B=D267), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="20" customHeight="1">
       <c r="A268" s="2" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B268" s="11" t="s">
         <v>47</v>
@@ -7069,16 +6749,16 @@
         <v>49</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E268" s="11" cm="1">
         <f t="array" ref="E268">IF(C268="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C268)*(工作表2!B:B=D268), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="20" customHeight="1">
       <c r="A269" s="2" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B269" s="11" t="s">
         <v>47</v>
@@ -7087,16 +6767,16 @@
         <v>49</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E269" s="11" cm="1">
         <f t="array" ref="E269">IF(C269="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C269)*(工作表2!B:B=D269), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="20" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B270" s="11" t="s">
         <v>47</v>
@@ -7105,16 +6785,16 @@
         <v>49</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E270" s="11" cm="1">
         <f t="array" ref="E270">IF(C270="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C270)*(工作表2!B:B=D270), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="20" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="B271" s="11" t="s">
         <v>47</v>
@@ -7123,16 +6803,16 @@
         <v>49</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E271" s="11" cm="1">
         <f t="array" ref="E271">IF(C271="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C271)*(工作表2!B:B=D271), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="20" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B272" s="11" t="s">
         <v>47</v>
@@ -7141,16 +6821,16 @@
         <v>49</v>
       </c>
       <c r="D272" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E272" s="11" cm="1">
         <f t="array" ref="E272">IF(C272="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C272)*(工作表2!B:B=D272), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="20" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B273" s="11" t="s">
         <v>47</v>
@@ -7159,16 +6839,16 @@
         <v>49</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E273" s="11" cm="1">
         <f t="array" ref="E273">IF(C273="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C273)*(工作表2!B:B=D273), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="20" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B274" s="11" t="s">
         <v>47</v>
@@ -7177,16 +6857,16 @@
         <v>49</v>
       </c>
       <c r="D274" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E274" s="11" cm="1">
         <f t="array" ref="E274">IF(C274="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C274)*(工作表2!B:B=D274), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="20" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B275" s="11" t="s">
         <v>47</v>
@@ -7195,16 +6875,16 @@
         <v>49</v>
       </c>
       <c r="D275" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E275" s="11" cm="1">
         <f t="array" ref="E275">IF(C275="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C275)*(工作表2!B:B=D275), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="20" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="B276" s="11" t="s">
         <v>47</v>
@@ -7213,16 +6893,16 @@
         <v>49</v>
       </c>
       <c r="D276" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E276" s="11" cm="1">
         <f t="array" ref="E276">IF(C276="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C276)*(工作表2!B:B=D276), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="20" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="B277" s="11" t="s">
         <v>47</v>
@@ -7231,16 +6911,16 @@
         <v>49</v>
       </c>
       <c r="D277" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E277" s="11" cm="1">
         <f t="array" ref="E277">IF(C277="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C277)*(工作表2!B:B=D277), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="20" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B278" s="11" t="s">
         <v>47</v>
@@ -7249,16 +6929,16 @@
         <v>49</v>
       </c>
       <c r="D278" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E278" s="11" cm="1">
         <f t="array" ref="E278">IF(C278="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C278)*(工作表2!B:B=D278), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="20" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B279" s="11" t="s">
         <v>47</v>
@@ -7267,16 +6947,16 @@
         <v>49</v>
       </c>
       <c r="D279" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E279" s="11" cm="1">
         <f t="array" ref="E279">IF(C279="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C279)*(工作表2!B:B=D279), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="20" customHeight="1">
-      <c r="A280" s="2" t="s">
-        <v>346</v>
+      <c r="A280" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="B280" s="11" t="s">
         <v>47</v>
@@ -7285,16 +6965,16 @@
         <v>49</v>
       </c>
       <c r="D280" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E280" s="11" cm="1">
         <f t="array" ref="E280">IF(C280="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C280)*(工作表2!B:B=D280), 0)),""))</f>
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="20" customHeight="1">
-      <c r="A281" s="2" t="s">
-        <v>347</v>
+      <c r="A281" s="22" t="s">
+        <v>333</v>
       </c>
       <c r="B281" s="11" t="s">
         <v>47</v>
@@ -7303,16 +6983,16 @@
         <v>49</v>
       </c>
       <c r="D281" s="11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E281" s="11" cm="1">
         <f t="array" ref="E281">IF(C281="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C281)*(工作表2!B:B=D281), 0)),""))</f>
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="20" customHeight="1">
-      <c r="A282" s="2" t="s">
-        <v>348</v>
+      <c r="A282" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="B282" s="11" t="s">
         <v>47</v>
@@ -7321,16 +7001,16 @@
         <v>49</v>
       </c>
       <c r="D282" s="11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E282" s="11" cm="1">
         <f t="array" ref="E282">IF(C282="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C282)*(工作表2!B:B=D282), 0)),""))</f>
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="20" customHeight="1">
-      <c r="A283" s="2" t="s">
-        <v>349</v>
+      <c r="A283" s="22" t="s">
+        <v>332</v>
       </c>
       <c r="B283" s="11" t="s">
         <v>47</v>
@@ -7339,16 +7019,16 @@
         <v>49</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E283" s="11" cm="1">
         <f t="array" ref="E283">IF(C283="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C283)*(工作表2!B:B=D283), 0)),""))</f>
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="20" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="B284" s="11" t="s">
         <v>47</v>
@@ -7357,16 +7037,16 @@
         <v>49</v>
       </c>
       <c r="D284" s="11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E284" s="11" cm="1">
         <f t="array" ref="E284">IF(C284="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C284)*(工作表2!B:B=D284), 0)),""))</f>
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="20" customHeight="1">
-      <c r="A285" s="8" t="s">
-        <v>351</v>
+      <c r="A285" s="22" t="s">
+        <v>335</v>
       </c>
       <c r="B285" s="11" t="s">
         <v>47</v>
@@ -7375,16 +7055,16 @@
         <v>49</v>
       </c>
       <c r="D285" s="11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E285" s="11" cm="1">
         <f t="array" ref="E285">IF(C285="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C285)*(工作表2!B:B=D285), 0)),""))</f>
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="20" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B286" s="11" t="s">
         <v>47</v>
@@ -7393,16 +7073,16 @@
         <v>49</v>
       </c>
       <c r="D286" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E286" s="11" cm="1">
         <f t="array" ref="E286">IF(C286="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C286)*(工作表2!B:B=D286), 0)),""))</f>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="20" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B287" s="11" t="s">
         <v>47</v>
@@ -7411,16 +7091,16 @@
         <v>49</v>
       </c>
       <c r="D287" s="11" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
       <c r="E287" s="11" cm="1">
         <f t="array" ref="E287">IF(C287="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C287)*(工作表2!B:B=D287), 0)),""))</f>
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="20" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B288" s="11" t="s">
         <v>47</v>
@@ -7429,16 +7109,16 @@
         <v>49</v>
       </c>
       <c r="D288" s="11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E288" s="11" cm="1">
         <f t="array" ref="E288">IF(C288="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C288)*(工作表2!B:B=D288), 0)),""))</f>
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="20" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B289" s="11" t="s">
         <v>47</v>
@@ -7447,16 +7127,16 @@
         <v>49</v>
       </c>
       <c r="D289" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E289" s="11" cm="1">
         <f t="array" ref="E289">IF(C289="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C289)*(工作表2!B:B=D289), 0)),""))</f>
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="20" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B290" s="11" t="s">
         <v>47</v>
@@ -7465,16 +7145,16 @@
         <v>49</v>
       </c>
       <c r="D290" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E290" s="11" cm="1">
         <f t="array" ref="E290">IF(C290="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C290)*(工作表2!B:B=D290), 0)),""))</f>
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="20" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="B291" s="11" t="s">
         <v>47</v>
@@ -7483,16 +7163,16 @@
         <v>49</v>
       </c>
       <c r="D291" s="11" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
       <c r="E291" s="11" cm="1">
         <f t="array" ref="E291">IF(C291="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C291)*(工作表2!B:B=D291), 0)),""))</f>
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="20" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B292" s="11" t="s">
         <v>47</v>
@@ -7501,16 +7181,16 @@
         <v>49</v>
       </c>
       <c r="D292" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E292" s="11" cm="1">
         <f t="array" ref="E292">IF(C292="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C292)*(工作表2!B:B=D292), 0)),""))</f>
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="20" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="B293" s="11" t="s">
         <v>47</v>
@@ -7519,16 +7199,16 @@
         <v>49</v>
       </c>
       <c r="D293" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E293" s="11" cm="1">
         <f t="array" ref="E293">IF(C293="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C293)*(工作表2!B:B=D293), 0)),""))</f>
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="20" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B294" s="11" t="s">
         <v>47</v>
@@ -7537,16 +7217,16 @@
         <v>49</v>
       </c>
       <c r="D294" s="11" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E294" s="11" cm="1">
         <f t="array" ref="E294">IF(C294="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C294)*(工作表2!B:B=D294), 0)),""))</f>
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="20" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B295" s="11" t="s">
         <v>47</v>
@@ -7555,16 +7235,16 @@
         <v>49</v>
       </c>
       <c r="D295" s="11" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E295" s="11" cm="1">
         <f t="array" ref="E295">IF(C295="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C295)*(工作表2!B:B=D295), 0)),""))</f>
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="20" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B296" s="11" t="s">
         <v>47</v>
@@ -7573,16 +7253,16 @@
         <v>49</v>
       </c>
       <c r="D296" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E296" s="11" cm="1">
         <f t="array" ref="E296">IF(C296="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C296)*(工作表2!B:B=D296), 0)),""))</f>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="20" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="B297" s="11" t="s">
         <v>47</v>
@@ -7591,16 +7271,16 @@
         <v>49</v>
       </c>
       <c r="D297" s="11" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
       <c r="E297" s="11" cm="1">
         <f t="array" ref="E297">IF(C297="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C297)*(工作表2!B:B=D297), 0)),""))</f>
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="20" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B298" s="11" t="s">
         <v>47</v>
@@ -7609,16 +7289,16 @@
         <v>49</v>
       </c>
       <c r="D298" s="11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E298" s="11" cm="1">
         <f t="array" ref="E298">IF(C298="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C298)*(工作表2!B:B=D298), 0)),""))</f>
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="20" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B299" s="11" t="s">
         <v>47</v>
@@ -7627,16 +7307,16 @@
         <v>49</v>
       </c>
       <c r="D299" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E299" s="11" cm="1">
         <f t="array" ref="E299">IF(C299="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C299)*(工作表2!B:B=D299), 0)),""))</f>
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="20" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="B300" s="11" t="s">
         <v>47</v>
@@ -7645,16 +7325,16 @@
         <v>49</v>
       </c>
       <c r="D300" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E300" s="11" cm="1">
         <f t="array" ref="E300">IF(C300="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C300)*(工作表2!B:B=D300), 0)),""))</f>
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="20" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B301" s="11" t="s">
         <v>47</v>
@@ -7663,16 +7343,16 @@
         <v>49</v>
       </c>
       <c r="D301" s="11" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
       <c r="E301" s="11" cm="1">
         <f t="array" ref="E301">IF(C301="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C301)*(工作表2!B:B=D301), 0)),""))</f>
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="20" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B302" s="11" t="s">
         <v>47</v>
@@ -7681,16 +7361,16 @@
         <v>49</v>
       </c>
       <c r="D302" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E302" s="11" cm="1">
         <f t="array" ref="E302">IF(C302="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C302)*(工作表2!B:B=D302), 0)),""))</f>
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="20" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B303" s="11" t="s">
         <v>47</v>
@@ -7699,16 +7379,16 @@
         <v>49</v>
       </c>
       <c r="D303" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E303" s="11" cm="1">
         <f t="array" ref="E303">IF(C303="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C303)*(工作表2!B:B=D303), 0)),""))</f>
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="20" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B304" s="11" t="s">
         <v>47</v>
@@ -7717,16 +7397,16 @@
         <v>49</v>
       </c>
       <c r="D304" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E304" s="11" cm="1">
         <f t="array" ref="E304">IF(C304="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C304)*(工作表2!B:B=D304), 0)),""))</f>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="20" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B305" s="11" t="s">
         <v>47</v>
@@ -7735,16 +7415,16 @@
         <v>49</v>
       </c>
       <c r="D305" s="11" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
       <c r="E305" s="11" cm="1">
         <f t="array" ref="E305">IF(C305="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C305)*(工作表2!B:B=D305), 0)),""))</f>
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="20" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B306" s="11" t="s">
         <v>47</v>
@@ -7753,16 +7433,16 @@
         <v>49</v>
       </c>
       <c r="D306" s="11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E306" s="11" cm="1">
         <f t="array" ref="E306">IF(C306="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C306)*(工作表2!B:B=D306), 0)),""))</f>
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="20" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="B307" s="11" t="s">
         <v>47</v>
@@ -7771,16 +7451,16 @@
         <v>49</v>
       </c>
       <c r="D307" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E307" s="11" cm="1">
         <f t="array" ref="E307">IF(C307="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C307)*(工作表2!B:B=D307), 0)),""))</f>
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="20" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B308" s="11" t="s">
         <v>47</v>
@@ -7789,16 +7469,16 @@
         <v>49</v>
       </c>
       <c r="D308" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E308" s="11" cm="1">
         <f t="array" ref="E308">IF(C308="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C308)*(工作表2!B:B=D308), 0)),""))</f>
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="20" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B309" s="11" t="s">
         <v>47</v>
@@ -7807,16 +7487,16 @@
         <v>49</v>
       </c>
       <c r="D309" s="11" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
       <c r="E309" s="11" cm="1">
         <f t="array" ref="E309">IF(C309="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C309)*(工作表2!B:B=D309), 0)),""))</f>
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="20" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B310" s="11" t="s">
         <v>47</v>
@@ -7825,16 +7505,16 @@
         <v>49</v>
       </c>
       <c r="D310" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E310" s="11" cm="1">
         <f t="array" ref="E310">IF(C310="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C310)*(工作表2!B:B=D310), 0)),""))</f>
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="20" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B311" s="11" t="s">
         <v>47</v>
@@ -7843,16 +7523,16 @@
         <v>49</v>
       </c>
       <c r="D311" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E311" s="11" cm="1">
         <f t="array" ref="E311">IF(C311="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C311)*(工作表2!B:B=D311), 0)),""))</f>
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="20" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B312" s="11" t="s">
         <v>47</v>
@@ -7861,16 +7541,16 @@
         <v>49</v>
       </c>
       <c r="D312" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E312" s="11" cm="1">
         <f t="array" ref="E312">IF(C312="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C312)*(工作表2!B:B=D312), 0)),""))</f>
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="20" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B313" s="11" t="s">
         <v>47</v>
@@ -7879,16 +7559,16 @@
         <v>49</v>
       </c>
       <c r="D313" s="11" t="s">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="E313" s="11" cm="1">
         <f t="array" ref="E313">IF(C313="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C313)*(工作表2!B:B=D313), 0)),""))</f>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="20" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B314" s="11" t="s">
         <v>47</v>
@@ -7897,16 +7577,16 @@
         <v>49</v>
       </c>
       <c r="D314" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E314" s="11" cm="1">
         <f t="array" ref="E314">IF(C314="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C314)*(工作表2!B:B=D314), 0)),""))</f>
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="20" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B315" s="11" t="s">
         <v>47</v>
@@ -7915,16 +7595,16 @@
         <v>49</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E315" s="11" cm="1">
         <f t="array" ref="E315">IF(C315="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C315)*(工作表2!B:B=D315), 0)),""))</f>
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="20" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B316" s="11" t="s">
         <v>47</v>
@@ -7933,16 +7613,16 @@
         <v>49</v>
       </c>
       <c r="D316" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E316" s="11" cm="1">
         <f t="array" ref="E316">IF(C316="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C316)*(工作表2!B:B=D316), 0)),""))</f>
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="20" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B317" s="11" t="s">
         <v>47</v>
@@ -7951,16 +7631,16 @@
         <v>49</v>
       </c>
       <c r="D317" s="11" t="s">
-        <v>10</v>
+        <v>328</v>
       </c>
       <c r="E317" s="11" cm="1">
         <f t="array" ref="E317">IF(C317="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C317)*(工作表2!B:B=D317), 0)),""))</f>
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="20" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="B318" s="11" t="s">
         <v>47</v>
@@ -7969,16 +7649,16 @@
         <v>49</v>
       </c>
       <c r="D318" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E318" s="11" cm="1">
         <f t="array" ref="E318">IF(C318="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C318)*(工作表2!B:B=D318), 0)),""))</f>
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="20" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="B319" s="11" t="s">
         <v>47</v>
@@ -7987,1706 +7667,590 @@
         <v>49</v>
       </c>
       <c r="D319" s="11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E319" s="11" cm="1">
         <f t="array" ref="E319">IF(C319="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C319)*(工作表2!B:B=D319), 0)),""))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="20" customHeight="1">
-      <c r="A320" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B320" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C320" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D320" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E320" s="11" cm="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E320" s="11" t="str" cm="1">
         <f t="array" ref="E320">IF(C320="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C320)*(工作表2!B:B=D320), 0)),""))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="20" customHeight="1">
-      <c r="A321" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B321" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C321" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D321" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E321" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E321" s="11" t="str" cm="1">
         <f t="array" ref="E321">IF(C321="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C321)*(工作表2!B:B=D321), 0)),""))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="20" customHeight="1">
-      <c r="A322" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B322" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C322" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D322" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E322" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E322" s="11" t="str" cm="1">
         <f t="array" ref="E322">IF(C322="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C322)*(工作表2!B:B=D322), 0)),""))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="20" customHeight="1">
-      <c r="A323" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B323" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C323" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D323" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E323" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E323" s="11" t="str" cm="1">
         <f t="array" ref="E323">IF(C323="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C323)*(工作表2!B:B=D323), 0)),""))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="20" customHeight="1">
-      <c r="A324" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B324" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C324" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D324" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E324" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E324" s="11" t="str" cm="1">
         <f t="array" ref="E324">IF(C324="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C324)*(工作表2!B:B=D324), 0)),""))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="20" customHeight="1">
-      <c r="A325" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B325" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C325" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D325" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E325" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E325" s="11" t="str" cm="1">
         <f t="array" ref="E325">IF(C325="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C325)*(工作表2!B:B=D325), 0)),""))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="20" customHeight="1">
-      <c r="A326" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B326" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C326" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D326" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E326" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E326" s="11" t="str" cm="1">
         <f t="array" ref="E326">IF(C326="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C326)*(工作表2!B:B=D326), 0)),""))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="20" customHeight="1">
-      <c r="A327" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B327" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C327" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D327" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E327" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E327" s="11" t="str" cm="1">
         <f t="array" ref="E327">IF(C327="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C327)*(工作表2!B:B=D327), 0)),""))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" ht="20" customHeight="1">
-      <c r="A328" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B328" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C328" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D328" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E328" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E328" s="11" t="str" cm="1">
         <f t="array" ref="E328">IF(C328="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C328)*(工作表2!B:B=D328), 0)),""))</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="20" customHeight="1">
-      <c r="A329" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B329" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C329" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D329" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E329" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E329" s="11" t="str" cm="1">
         <f t="array" ref="E329">IF(C329="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C329)*(工作表2!B:B=D329), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="20" customHeight="1">
-      <c r="A330" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B330" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C330" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D330" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E330" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E330" s="11" t="str" cm="1">
         <f t="array" ref="E330">IF(C330="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C330)*(工作表2!B:B=D330), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" ht="20" customHeight="1">
-      <c r="A331" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B331" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C331" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D331" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E331" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E331" s="11" t="str" cm="1">
         <f t="array" ref="E331">IF(C331="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C331)*(工作表2!B:B=D331), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="20" customHeight="1">
-      <c r="A332" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B332" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C332" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D332" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E332" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E332" s="11" t="str" cm="1">
         <f t="array" ref="E332">IF(C332="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C332)*(工作表2!B:B=D332), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="20" customHeight="1">
-      <c r="A333" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="B333" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C333" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D333" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E333" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E333" s="11" t="str" cm="1">
         <f t="array" ref="E333">IF(C333="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C333)*(工作表2!B:B=D333), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="20" customHeight="1">
-      <c r="A334" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B334" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C334" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D334" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E334" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E334" s="11" t="str" cm="1">
         <f t="array" ref="E334">IF(C334="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C334)*(工作表2!B:B=D334), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="20" customHeight="1">
-      <c r="A335" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B335" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C335" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D335" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E335" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E335" s="11" t="str" cm="1">
         <f t="array" ref="E335">IF(C335="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C335)*(工作表2!B:B=D335), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="20" customHeight="1">
-      <c r="A336" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B336" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C336" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D336" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E336" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E336" s="11" t="str" cm="1">
         <f t="array" ref="E336">IF(C336="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C336)*(工作表2!B:B=D336), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="20" customHeight="1">
-      <c r="A337" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B337" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C337" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D337" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E337" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E337" s="11" t="str" cm="1">
         <f t="array" ref="E337">IF(C337="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C337)*(工作表2!B:B=D337), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" ht="20" customHeight="1">
-      <c r="A338" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B338" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C338" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D338" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E338" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E338" s="11" t="str" cm="1">
         <f t="array" ref="E338">IF(C338="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C338)*(工作表2!B:B=D338), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" ht="20" customHeight="1">
-      <c r="A339" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B339" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C339" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D339" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E339" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E339" s="11" t="str" cm="1">
         <f t="array" ref="E339">IF(C339="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C339)*(工作表2!B:B=D339), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" ht="20" customHeight="1">
-      <c r="A340" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B340" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C340" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D340" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E340" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E340" s="11" t="str" cm="1">
         <f t="array" ref="E340">IF(C340="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C340)*(工作表2!B:B=D340), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="20" customHeight="1">
-      <c r="A341" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B341" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C341" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D341" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E341" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E341" s="11" t="str" cm="1">
         <f t="array" ref="E341">IF(C341="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C341)*(工作表2!B:B=D341), 0)),""))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="20" customHeight="1">
-      <c r="A342" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B342" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C342" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D342" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E342" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E342" s="11" t="str" cm="1">
         <f t="array" ref="E342">IF(C342="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C342)*(工作表2!B:B=D342), 0)),""))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" ht="20" customHeight="1">
-      <c r="A343" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B343" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C343" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D343" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E343" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E343" s="11" t="str" cm="1">
         <f t="array" ref="E343">IF(C343="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C343)*(工作表2!B:B=D343), 0)),""))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" ht="20" customHeight="1">
-      <c r="A344" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B344" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C344" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D344" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E344" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E344" s="11" t="str" cm="1">
         <f t="array" ref="E344">IF(C344="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C344)*(工作表2!B:B=D344), 0)),""))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" ht="20" customHeight="1">
-      <c r="A345" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B345" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C345" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D345" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E345" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E345" s="11" t="str" cm="1">
         <f t="array" ref="E345">IF(C345="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C345)*(工作表2!B:B=D345), 0)),""))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" ht="20" customHeight="1">
-      <c r="A346" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B346" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C346" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D346" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E346" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E346" s="11" t="str" cm="1">
         <f t="array" ref="E346">IF(C346="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C346)*(工作表2!B:B=D346), 0)),""))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" ht="20" customHeight="1">
-      <c r="A347" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B347" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C347" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D347" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E347" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E347" s="11" t="str" cm="1">
         <f t="array" ref="E347">IF(C347="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C347)*(工作表2!B:B=D347), 0)),""))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" ht="20" customHeight="1">
-      <c r="A348" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B348" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C348" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D348" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E348" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E348" s="11" t="str" cm="1">
         <f t="array" ref="E348">IF(C348="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C348)*(工作表2!B:B=D348), 0)),""))</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="20" customHeight="1">
-      <c r="A349" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B349" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C349" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D349" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E349" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E349" s="11" t="str" cm="1">
         <f t="array" ref="E349">IF(C349="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C349)*(工作表2!B:B=D349), 0)),""))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="20" customHeight="1">
-      <c r="A350" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B350" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C350" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D350" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E350" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E350" s="11" t="str" cm="1">
         <f t="array" ref="E350">IF(C350="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C350)*(工作表2!B:B=D350), 0)),""))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="20" customHeight="1">
-      <c r="A351" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B351" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C351" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D351" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E351" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E351" s="11" t="str" cm="1">
         <f t="array" ref="E351">IF(C351="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C351)*(工作表2!B:B=D351), 0)),""))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" ht="20" customHeight="1">
-      <c r="A352" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B352" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C352" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D352" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E352" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E352" s="11" t="str" cm="1">
         <f t="array" ref="E352">IF(C352="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C352)*(工作表2!B:B=D352), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" ht="20" customHeight="1">
-      <c r="A353" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B353" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C353" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D353" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E353" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E353" s="11" t="str" cm="1">
         <f t="array" ref="E353">IF(C353="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C353)*(工作表2!B:B=D353), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="20" customHeight="1">
-      <c r="A354" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B354" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C354" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D354" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E354" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E354" s="11" t="str" cm="1">
         <f t="array" ref="E354">IF(C354="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C354)*(工作表2!B:B=D354), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="20" customHeight="1">
-      <c r="A355" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B355" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C355" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D355" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E355" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E355" s="11" t="str" cm="1">
         <f t="array" ref="E355">IF(C355="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C355)*(工作表2!B:B=D355), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="20" customHeight="1">
-      <c r="A356" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B356" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C356" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D356" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E356" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E356" s="11" t="str" cm="1">
         <f t="array" ref="E356">IF(C356="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C356)*(工作表2!B:B=D356), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="20" customHeight="1">
-      <c r="A357" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B357" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C357" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D357" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E357" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E357" s="11" t="str" cm="1">
         <f t="array" ref="E357">IF(C357="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C357)*(工作表2!B:B=D357), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="20" customHeight="1">
-      <c r="A358" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B358" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C358" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D358" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E358" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E358" s="11" t="str" cm="1">
         <f t="array" ref="E358">IF(C358="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C358)*(工作表2!B:B=D358), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" ht="20" customHeight="1">
-      <c r="A359" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B359" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C359" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D359" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E359" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E359" s="11" t="str" cm="1">
         <f t="array" ref="E359">IF(C359="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C359)*(工作表2!B:B=D359), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" ht="20" customHeight="1">
-      <c r="A360" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B360" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C360" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D360" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E360" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E360" s="11" t="str" cm="1">
         <f t="array" ref="E360">IF(C360="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C360)*(工作表2!B:B=D360), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="20" customHeight="1">
-      <c r="A361" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="B361" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D361" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E361" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E361" s="11" t="str" cm="1">
         <f t="array" ref="E361">IF(C361="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C361)*(工作表2!B:B=D361), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" ht="20" customHeight="1">
-      <c r="A362" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B362" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C362" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D362" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E362" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E362" s="11" t="str" cm="1">
         <f t="array" ref="E362">IF(C362="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C362)*(工作表2!B:B=D362), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="20" customHeight="1">
-      <c r="A363" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B363" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C363" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D363" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E363" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E363" s="11" t="str" cm="1">
         <f t="array" ref="E363">IF(C363="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C363)*(工作表2!B:B=D363), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" ht="20" customHeight="1">
-      <c r="A364" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B364" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C364" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D364" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E364" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E364" s="11" t="str" cm="1">
         <f t="array" ref="E364">IF(C364="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C364)*(工作表2!B:B=D364), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" ht="20" customHeight="1">
-      <c r="A365" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B365" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C365" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D365" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E365" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E365" s="11" t="str" cm="1">
         <f t="array" ref="E365">IF(C365="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C365)*(工作表2!B:B=D365), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" ht="20" customHeight="1">
-      <c r="A366" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B366" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C366" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D366" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E366" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E366" s="11" t="str" cm="1">
         <f t="array" ref="E366">IF(C366="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C366)*(工作表2!B:B=D366), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="20" customHeight="1">
-      <c r="A367" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B367" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C367" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D367" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E367" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E367" s="11" t="str" cm="1">
         <f t="array" ref="E367">IF(C367="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C367)*(工作表2!B:B=D367), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" ht="20" customHeight="1">
-      <c r="A368" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B368" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C368" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D368" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E368" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E368" s="11" t="str" cm="1">
         <f t="array" ref="E368">IF(C368="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C368)*(工作表2!B:B=D368), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" ht="20" customHeight="1">
-      <c r="A369" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B369" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C369" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D369" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E369" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E369" s="11" t="str" cm="1">
         <f t="array" ref="E369">IF(C369="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C369)*(工作表2!B:B=D369), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" ht="20" customHeight="1">
-      <c r="A370" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B370" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C370" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D370" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E370" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E370" s="11" t="str" cm="1">
         <f t="array" ref="E370">IF(C370="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C370)*(工作表2!B:B=D370), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" ht="20" customHeight="1">
-      <c r="A371" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B371" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C371" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D371" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E371" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E371" s="11" t="str" cm="1">
         <f t="array" ref="E371">IF(C371="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C371)*(工作表2!B:B=D371), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" ht="20" customHeight="1">
-      <c r="A372" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B372" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C372" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D372" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E372" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E372" s="11" t="str" cm="1">
         <f t="array" ref="E372">IF(C372="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C372)*(工作表2!B:B=D372), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" ht="20" customHeight="1">
-      <c r="A373" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="B373" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C373" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D373" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E373" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E373" s="11" t="str" cm="1">
         <f t="array" ref="E373">IF(C373="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C373)*(工作表2!B:B=D373), 0)),""))</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" ht="20" customHeight="1">
-      <c r="A374" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="B374" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C374" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D374" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E374" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E374" s="11" t="str" cm="1">
         <f t="array" ref="E374">IF(C374="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C374)*(工作表2!B:B=D374), 0)),""))</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" ht="20" customHeight="1">
-      <c r="A375" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="B375" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C375" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D375" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E375" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E375" s="11" t="str" cm="1">
         <f t="array" ref="E375">IF(C375="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C375)*(工作表2!B:B=D375), 0)),""))</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" ht="20" customHeight="1">
-      <c r="A376" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="B376" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C376" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D376" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E376" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E376" s="11" t="str" cm="1">
         <f t="array" ref="E376">IF(C376="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C376)*(工作表2!B:B=D376), 0)),""))</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" ht="20" customHeight="1">
-      <c r="A377" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B377" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C377" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D377" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E377" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E377" s="11" t="str" cm="1">
         <f t="array" ref="E377">IF(C377="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C377)*(工作表2!B:B=D377), 0)),""))</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" ht="20" customHeight="1">
-      <c r="A378" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="B378" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C378" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D378" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E378" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E378" s="11" t="str" cm="1">
         <f t="array" ref="E378">IF(C378="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C378)*(工作表2!B:B=D378), 0)),""))</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="20" customHeight="1">
-      <c r="A379" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B379" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C379" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D379" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E379" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E379" s="11" t="str" cm="1">
         <f t="array" ref="E379">IF(C379="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C379)*(工作表2!B:B=D379), 0)),""))</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" ht="20" customHeight="1">
-      <c r="A380" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B380" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C380" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D380" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="E380" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E380" s="11" t="str" cm="1">
         <f t="array" ref="E380">IF(C380="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C380)*(工作表2!B:B=D380), 0)),""))</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" ht="20" customHeight="1">
-      <c r="A381" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B381" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C381" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D381" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E381" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E381" s="11" t="str" cm="1">
         <f t="array" ref="E381">IF(C381="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C381)*(工作表2!B:B=D381), 0)),""))</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" ht="20" customHeight="1">
-      <c r="A382" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B382" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C382" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D382" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E382" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E382" s="11" t="str" cm="1">
         <f t="array" ref="E382">IF(C382="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C382)*(工作表2!B:B=D382), 0)),""))</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" ht="20" customHeight="1">
-      <c r="A383" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B383" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C383" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D383" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E383" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E383" s="11" t="str" cm="1">
         <f t="array" ref="E383">IF(C383="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C383)*(工作表2!B:B=D383), 0)),""))</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="20" customHeight="1">
-      <c r="A384" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B384" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C384" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D384" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="E384" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E384" s="11" t="str" cm="1">
         <f t="array" ref="E384">IF(C384="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C384)*(工作表2!B:B=D384), 0)),""))</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" ht="20" customHeight="1">
-      <c r="A385" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B385" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C385" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D385" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E385" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E385" s="11" t="str" cm="1">
         <f t="array" ref="E385">IF(C385="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C385)*(工作表2!B:B=D385), 0)),""))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" ht="20" customHeight="1">
-      <c r="A386" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B386" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C386" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D386" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E386" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E386" s="11" t="str" cm="1">
         <f t="array" ref="E386">IF(C386="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C386)*(工作表2!B:B=D386), 0)),""))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" ht="20" customHeight="1">
-      <c r="A387" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B387" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C387" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D387" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E387" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E387" s="11" t="str" cm="1">
         <f t="array" ref="E387">IF(C387="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C387)*(工作表2!B:B=D387), 0)),""))</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" ht="20" customHeight="1">
-      <c r="A388" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="B388" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C388" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D388" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E388" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E388" s="11" t="str" cm="1">
         <f t="array" ref="E388">IF(C388="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C388)*(工作表2!B:B=D388), 0)),""))</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" ht="20" customHeight="1">
-      <c r="A389" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="B389" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C389" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D389" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E389" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E389" s="11" t="str" cm="1">
         <f t="array" ref="E389">IF(C389="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C389)*(工作表2!B:B=D389), 0)),""))</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" ht="20" customHeight="1">
-      <c r="A390" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B390" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C390" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D390" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="E390" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E390" s="11" t="str" cm="1">
         <f t="array" ref="E390">IF(C390="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C390)*(工作表2!B:B=D390), 0)),""))</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" ht="20" customHeight="1">
-      <c r="A391" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B391" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C391" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D391" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E391" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E391" s="11" t="str" cm="1">
         <f t="array" ref="E391">IF(C391="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C391)*(工作表2!B:B=D391), 0)),""))</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" ht="20" customHeight="1">
-      <c r="A392" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B392" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C392" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D392" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E392" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E392" s="11" t="str" cm="1">
         <f t="array" ref="E392">IF(C392="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C392)*(工作表2!B:B=D392), 0)),""))</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" ht="20" customHeight="1">
-      <c r="A393" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="B393" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C393" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D393" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E393" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E393" s="11" t="str" cm="1">
         <f t="array" ref="E393">IF(C393="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C393)*(工作表2!B:B=D393), 0)),""))</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" ht="20" customHeight="1">
-      <c r="A394" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B394" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C394" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D394" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="E394" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E394" s="11" t="str" cm="1">
         <f t="array" ref="E394">IF(C394="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C394)*(工作表2!B:B=D394), 0)),""))</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" ht="20" customHeight="1">
-      <c r="A395" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B395" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C395" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D395" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E395" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E395" s="11" t="str" cm="1">
         <f t="array" ref="E395">IF(C395="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C395)*(工作表2!B:B=D395), 0)),""))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" ht="20" customHeight="1">
-      <c r="A396" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B396" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C396" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D396" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E396" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E396" s="11" t="str" cm="1">
         <f t="array" ref="E396">IF(C396="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C396)*(工作表2!B:B=D396), 0)),""))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" ht="20" customHeight="1">
-      <c r="A397" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B397" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C397" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D397" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E397" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E397" s="11" t="str" cm="1">
         <f t="array" ref="E397">IF(C397="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C397)*(工作表2!B:B=D397), 0)),""))</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" ht="20" customHeight="1">
-      <c r="A398" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B398" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C398" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D398" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="E398" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E398" s="11" t="str" cm="1">
         <f t="array" ref="E398">IF(C398="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C398)*(工作表2!B:B=D398), 0)),""))</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" ht="20" customHeight="1">
-      <c r="A399" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B399" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C399" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D399" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E399" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E399" s="11" t="str" cm="1">
         <f t="array" ref="E399">IF(C399="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C399)*(工作表2!B:B=D399), 0)),""))</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" ht="20" customHeight="1">
-      <c r="A400" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B400" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C400" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D400" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E400" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E400" s="11" t="str" cm="1">
         <f t="array" ref="E400">IF(C400="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C400)*(工作表2!B:B=D400), 0)),""))</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" ht="20" customHeight="1">
-      <c r="A401" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B401" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C401" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D401" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E401" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E401" s="11" t="str" cm="1">
         <f t="array" ref="E401">IF(C401="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C401)*(工作表2!B:B=D401), 0)),""))</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" ht="20" customHeight="1">
-      <c r="A402" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B402" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C402" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D402" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="E402" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E402" s="11" t="str" cm="1">
         <f t="array" ref="E402">IF(C402="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C402)*(工作表2!B:B=D402), 0)),""))</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" ht="20" customHeight="1">
-      <c r="A403" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B403" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C403" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D403" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E403" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E403" s="11" t="str" cm="1">
         <f t="array" ref="E403">IF(C403="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C403)*(工作表2!B:B=D403), 0)),""))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" ht="20" customHeight="1">
-      <c r="A404" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B404" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C404" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D404" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E404" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E404" s="11" t="str" cm="1">
         <f t="array" ref="E404">IF(C404="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C404)*(工作表2!B:B=D404), 0)),""))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" ht="20" customHeight="1">
-      <c r="A405" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B405" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C405" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D405" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E405" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E405" s="11" t="str" cm="1">
         <f t="array" ref="E405">IF(C405="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C405)*(工作表2!B:B=D405), 0)),""))</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" ht="20" customHeight="1">
-      <c r="A406" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B406" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C406" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D406" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="E406" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E406" s="11" t="str" cm="1">
         <f t="array" ref="E406">IF(C406="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C406)*(工作表2!B:B=D406), 0)),""))</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" ht="20" customHeight="1">
-      <c r="A407" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B407" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C407" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D407" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E407" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E407" s="11" t="str" cm="1">
         <f t="array" ref="E407">IF(C407="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C407)*(工作表2!B:B=D407), 0)),""))</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" ht="20" customHeight="1">
-      <c r="A408" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B408" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C408" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D408" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E408" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E408" s="11" t="str" cm="1">
         <f t="array" ref="E408">IF(C408="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C408)*(工作表2!B:B=D408), 0)),""))</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" ht="20" customHeight="1">
-      <c r="A409" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B409" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C409" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D409" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E409" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E409" s="11" t="str" cm="1">
         <f t="array" ref="E409">IF(C409="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C409)*(工作表2!B:B=D409), 0)),""))</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" ht="20" customHeight="1">
-      <c r="A410" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B410" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C410" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D410" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="E410" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E410" s="11" t="str" cm="1">
         <f t="array" ref="E410">IF(C410="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C410)*(工作表2!B:B=D410), 0)),""))</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" ht="20" customHeight="1">
-      <c r="A411" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B411" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C411" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D411" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E411" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E411" s="11" t="str" cm="1">
         <f t="array" ref="E411">IF(C411="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C411)*(工作表2!B:B=D411), 0)),""))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" ht="20" customHeight="1">
-      <c r="A412" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B412" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C412" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D412" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E412" s="11" cm="1">
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E412" s="11" t="str" cm="1">
         <f t="array" ref="E412">IF(C412="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C412)*(工作表2!B:B=D412), 0)),""))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" ht="15.75" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="5:5" ht="15.75" customHeight="1">
       <c r="E413" s="11" t="str" cm="1">
         <f t="array" ref="E413">IF(C413="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C413)*(工作表2!B:B=D413), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="15.75" customHeight="1">
+    <row r="414" spans="5:5" ht="15.75" customHeight="1">
       <c r="E414" s="11" t="str" cm="1">
         <f t="array" ref="E414">IF(C414="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C414)*(工作表2!B:B=D414), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="15.75" customHeight="1">
+    <row r="415" spans="5:5" ht="15.75" customHeight="1">
       <c r="E415" s="11" t="str" cm="1">
         <f t="array" ref="E415">IF(C415="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C415)*(工作表2!B:B=D415), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="15.75" customHeight="1">
+    <row r="416" spans="5:5" ht="15.75" customHeight="1">
       <c r="E416" s="11" t="str" cm="1">
         <f t="array" ref="E416">IF(C416="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C416)*(工作表2!B:B=D416), 0)),""))</f>
         <v/>
@@ -11324,97 +9888,98 @@
         <v/>
       </c>
     </row>
-    <row r="689" spans="5:5" ht="15.75" customHeight="1">
+    <row r="689" spans="4:5" ht="15.75" customHeight="1">
       <c r="E689" s="11" t="str" cm="1">
         <f t="array" ref="E689">IF(C689="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C689)*(工作表2!B:B=D689), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="690" spans="5:5" ht="15.75" customHeight="1">
+    <row r="690" spans="4:5" ht="15.75" customHeight="1">
+      <c r="D690" s="1"/>
       <c r="E690" s="11" t="str" cm="1">
         <f t="array" ref="E690">IF(C690="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C690)*(工作表2!B:B=D690), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="691" spans="5:5" ht="15.75" customHeight="1">
+    <row r="691" spans="4:5" ht="15.75" customHeight="1">
       <c r="E691" s="11" t="str" cm="1">
         <f t="array" ref="E691">IF(C691="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C691)*(工作表2!B:B=D691), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="692" spans="5:5" ht="15.75" customHeight="1">
+    <row r="692" spans="4:5" ht="15.75" customHeight="1">
       <c r="E692" s="11" t="str" cm="1">
         <f t="array" ref="E692">IF(C692="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C692)*(工作表2!B:B=D692), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="693" spans="5:5" ht="15.75" customHeight="1">
+    <row r="693" spans="4:5" ht="15.75" customHeight="1">
       <c r="E693" s="11" t="str" cm="1">
         <f t="array" ref="E693">IF(C693="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C693)*(工作表2!B:B=D693), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="694" spans="5:5" ht="15.75" customHeight="1">
+    <row r="694" spans="4:5" ht="15.75" customHeight="1">
       <c r="E694" s="11" t="str" cm="1">
         <f t="array" ref="E694">IF(C694="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C694)*(工作表2!B:B=D694), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="695" spans="5:5" ht="15.75" customHeight="1">
+    <row r="695" spans="4:5" ht="15.75" customHeight="1">
       <c r="E695" s="11" t="str" cm="1">
         <f t="array" ref="E695">IF(C695="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C695)*(工作表2!B:B=D695), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="696" spans="5:5" ht="15.75" customHeight="1">
+    <row r="696" spans="4:5" ht="15.75" customHeight="1">
       <c r="E696" s="11" t="str" cm="1">
         <f t="array" ref="E696">IF(C696="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C696)*(工作表2!B:B=D696), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="697" spans="5:5" ht="15.75" customHeight="1">
+    <row r="697" spans="4:5" ht="15.75" customHeight="1">
       <c r="E697" s="11" t="str" cm="1">
         <f t="array" ref="E697">IF(C697="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C697)*(工作表2!B:B=D697), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="698" spans="5:5" ht="15.75" customHeight="1">
+    <row r="698" spans="4:5" ht="15.75" customHeight="1">
       <c r="E698" s="11" t="str" cm="1">
         <f t="array" ref="E698">IF(C698="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C698)*(工作表2!B:B=D698), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="699" spans="5:5" ht="15.75" customHeight="1">
+    <row r="699" spans="4:5" ht="15.75" customHeight="1">
       <c r="E699" s="11" t="str" cm="1">
         <f t="array" ref="E699">IF(C699="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C699)*(工作表2!B:B=D699), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="700" spans="5:5" ht="15.75" customHeight="1">
+    <row r="700" spans="4:5" ht="15.75" customHeight="1">
       <c r="E700" s="11" t="str" cm="1">
         <f t="array" ref="E700">IF(C700="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C700)*(工作表2!B:B=D700), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="701" spans="5:5" ht="15.75" customHeight="1">
+    <row r="701" spans="4:5" ht="15.75" customHeight="1">
       <c r="E701" s="11" t="str" cm="1">
         <f t="array" ref="E701">IF(C701="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C701)*(工作表2!B:B=D701), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="702" spans="5:5" ht="15.75" customHeight="1">
+    <row r="702" spans="4:5" ht="15.75" customHeight="1">
       <c r="E702" s="11" t="str" cm="1">
         <f t="array" ref="E702">IF(C702="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C702)*(工作表2!B:B=D702), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="703" spans="5:5" ht="15.75" customHeight="1">
+    <row r="703" spans="4:5" ht="15.75" customHeight="1">
       <c r="E703" s="11" t="str" cm="1">
         <f t="array" ref="E703">IF(C703="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C703)*(工作表2!B:B=D703), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="704" spans="5:5" ht="15.75" customHeight="1">
+    <row r="704" spans="4:5" ht="15.75" customHeight="1">
       <c r="E704" s="11" t="str" cm="1">
         <f t="array" ref="E704">IF(C704="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C704)*(工作表2!B:B=D704), 0)),""))</f>
         <v/>
@@ -11804,98 +10369,97 @@
         <v/>
       </c>
     </row>
-    <row r="769" spans="4:5" ht="15.75" customHeight="1">
+    <row r="769" spans="5:5" ht="15.75" customHeight="1">
       <c r="E769" s="11" t="str" cm="1">
         <f t="array" ref="E769">IF(C769="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C769)*(工作表2!B:B=D769), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="770" spans="4:5" ht="15.75" customHeight="1">
+    <row r="770" spans="5:5" ht="15.75" customHeight="1">
       <c r="E770" s="11" t="str" cm="1">
         <f t="array" ref="E770">IF(C770="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C770)*(工作表2!B:B=D770), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="771" spans="4:5" ht="15.75" customHeight="1">
+    <row r="771" spans="5:5" ht="15.75" customHeight="1">
       <c r="E771" s="11" t="str" cm="1">
         <f t="array" ref="E771">IF(C771="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C771)*(工作表2!B:B=D771), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="772" spans="4:5" ht="15.75" customHeight="1">
+    <row r="772" spans="5:5" ht="15.75" customHeight="1">
       <c r="E772" s="11" t="str" cm="1">
         <f t="array" ref="E772">IF(C772="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C772)*(工作表2!B:B=D772), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="773" spans="4:5" ht="15.75" customHeight="1">
+    <row r="773" spans="5:5" ht="15.75" customHeight="1">
       <c r="E773" s="11" t="str" cm="1">
         <f t="array" ref="E773">IF(C773="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C773)*(工作表2!B:B=D773), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="774" spans="4:5" ht="15.75" customHeight="1">
+    <row r="774" spans="5:5" ht="15.75" customHeight="1">
       <c r="E774" s="11" t="str" cm="1">
         <f t="array" ref="E774">IF(C774="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C774)*(工作表2!B:B=D774), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="775" spans="4:5" ht="15.75" customHeight="1">
+    <row r="775" spans="5:5" ht="15.75" customHeight="1">
       <c r="E775" s="11" t="str" cm="1">
         <f t="array" ref="E775">IF(C775="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C775)*(工作表2!B:B=D775), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="776" spans="4:5" ht="15.75" customHeight="1">
+    <row r="776" spans="5:5" ht="15.75" customHeight="1">
       <c r="E776" s="11" t="str" cm="1">
         <f t="array" ref="E776">IF(C776="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C776)*(工作表2!B:B=D776), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="777" spans="4:5" ht="15.75" customHeight="1">
+    <row r="777" spans="5:5" ht="15.75" customHeight="1">
       <c r="E777" s="11" t="str" cm="1">
         <f t="array" ref="E777">IF(C777="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C777)*(工作表2!B:B=D777), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="778" spans="4:5" ht="15.75" customHeight="1">
+    <row r="778" spans="5:5" ht="15.75" customHeight="1">
       <c r="E778" s="11" t="str" cm="1">
         <f t="array" ref="E778">IF(C778="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C778)*(工作表2!B:B=D778), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="779" spans="4:5" ht="15.75" customHeight="1">
+    <row r="779" spans="5:5" ht="15.75" customHeight="1">
       <c r="E779" s="11" t="str" cm="1">
         <f t="array" ref="E779">IF(C779="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C779)*(工作表2!B:B=D779), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="780" spans="4:5" ht="15.75" customHeight="1">
+    <row r="780" spans="5:5" ht="15.75" customHeight="1">
       <c r="E780" s="11" t="str" cm="1">
         <f t="array" ref="E780">IF(C780="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C780)*(工作表2!B:B=D780), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="781" spans="4:5" ht="15.75" customHeight="1">
+    <row r="781" spans="5:5" ht="15.75" customHeight="1">
       <c r="E781" s="11" t="str" cm="1">
         <f t="array" ref="E781">IF(C781="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C781)*(工作表2!B:B=D781), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="782" spans="4:5" ht="15.75" customHeight="1">
+    <row r="782" spans="5:5" ht="15.75" customHeight="1">
       <c r="E782" s="11" t="str" cm="1">
         <f t="array" ref="E782">IF(C782="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C782)*(工作表2!B:B=D782), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="783" spans="4:5" ht="15.75" customHeight="1">
-      <c r="D783" s="1"/>
+    <row r="783" spans="5:5" ht="15.75" customHeight="1">
       <c r="E783" s="11" t="str" cm="1">
         <f t="array" ref="E783">IF(C783="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C783)*(工作表2!B:B=D783), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="784" spans="4:5" ht="15.75" customHeight="1">
+    <row r="784" spans="5:5" ht="15.75" customHeight="1">
       <c r="E784" s="11" t="str" cm="1">
         <f t="array" ref="E784">IF(C784="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C784)*(工作表2!B:B=D784), 0)),""))</f>
         <v/>
@@ -14109,589 +12673,961 @@
         <v/>
       </c>
     </row>
-    <row r="1153" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1153" spans="1:5" ht="15.75" customHeight="1">
       <c r="E1153" s="11" t="str" cm="1">
         <f t="array" ref="E1153">IF(C1153="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1153)*(工作表2!B:B=D1153), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1154" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1154" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B1154" s="5"/>
+      <c r="D1154" s="5"/>
       <c r="E1154" s="11" t="str" cm="1">
         <f t="array" ref="E1154">IF(C1154="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1154)*(工作表2!B:B=D1154), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1155" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1155" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B1155" s="5"/>
+      <c r="D1155" s="5"/>
       <c r="E1155" s="11" t="str" cm="1">
         <f t="array" ref="E1155">IF(C1155="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1155)*(工作表2!B:B=D1155), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1156" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1156" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B1156" s="5"/>
+      <c r="D1156" s="5"/>
       <c r="E1156" s="11" t="str" cm="1">
         <f t="array" ref="E1156">IF(C1156="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1156)*(工作表2!B:B=D1156), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1157" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1157" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1157" s="10"/>
+      <c r="B1157" s="1"/>
+      <c r="C1157" s="1"/>
+      <c r="D1157" s="1"/>
       <c r="E1157" s="11" t="str" cm="1">
         <f t="array" ref="E1157">IF(C1157="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1157)*(工作表2!B:B=D1157), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1158" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1158" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1158" s="10"/>
+      <c r="B1158" s="1"/>
+      <c r="C1158" s="1"/>
+      <c r="D1158" s="1"/>
       <c r="E1158" s="11" t="str" cm="1">
         <f t="array" ref="E1158">IF(C1158="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1158)*(工作表2!B:B=D1158), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1159" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1159" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1159" s="10"/>
+      <c r="B1159" s="1"/>
+      <c r="C1159" s="1"/>
+      <c r="D1159" s="1"/>
       <c r="E1159" s="11" t="str" cm="1">
         <f t="array" ref="E1159">IF(C1159="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1159)*(工作表2!B:B=D1159), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1160" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1160" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1160" s="10"/>
+      <c r="B1160" s="1"/>
+      <c r="C1160" s="1"/>
+      <c r="D1160" s="1"/>
       <c r="E1160" s="11" t="str" cm="1">
         <f t="array" ref="E1160">IF(C1160="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1160)*(工作表2!B:B=D1160), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1161" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1161" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1161" s="10"/>
+      <c r="B1161" s="1"/>
+      <c r="C1161" s="1"/>
+      <c r="D1161" s="1"/>
       <c r="E1161" s="11" t="str" cm="1">
         <f t="array" ref="E1161">IF(C1161="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1161)*(工作表2!B:B=D1161), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1162" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1162" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1162" s="10"/>
+      <c r="B1162" s="1"/>
+      <c r="C1162" s="1"/>
+      <c r="D1162" s="1"/>
       <c r="E1162" s="11" t="str" cm="1">
         <f t="array" ref="E1162">IF(C1162="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1162)*(工作表2!B:B=D1162), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1163" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1163" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1163" s="10"/>
+      <c r="B1163" s="1"/>
+      <c r="C1163" s="1"/>
+      <c r="D1163" s="1"/>
       <c r="E1163" s="11" t="str" cm="1">
         <f t="array" ref="E1163">IF(C1163="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1163)*(工作表2!B:B=D1163), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1164" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1164" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1164" s="10"/>
+      <c r="B1164" s="1"/>
+      <c r="C1164" s="1"/>
+      <c r="D1164" s="1"/>
       <c r="E1164" s="11" t="str" cm="1">
         <f t="array" ref="E1164">IF(C1164="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1164)*(工作表2!B:B=D1164), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1165" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1165" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1165" s="10"/>
+      <c r="B1165" s="1"/>
+      <c r="C1165" s="1"/>
+      <c r="D1165" s="6"/>
       <c r="E1165" s="11" t="str" cm="1">
         <f t="array" ref="E1165">IF(C1165="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1165)*(工作表2!B:B=D1165), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1166" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1166" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1166" s="10"/>
+      <c r="B1166" s="1"/>
+      <c r="C1166" s="1"/>
+      <c r="D1166" s="1"/>
       <c r="E1166" s="11" t="str" cm="1">
         <f t="array" ref="E1166">IF(C1166="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1166)*(工作表2!B:B=D1166), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1167" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1167" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1167" s="10"/>
+      <c r="B1167" s="1"/>
+      <c r="C1167" s="1"/>
+      <c r="D1167" s="1"/>
       <c r="E1167" s="11" t="str" cm="1">
         <f t="array" ref="E1167">IF(C1167="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1167)*(工作表2!B:B=D1167), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1168" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1168" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1168" s="10"/>
+      <c r="B1168" s="1"/>
+      <c r="C1168" s="1"/>
+      <c r="D1168" s="1"/>
       <c r="E1168" s="11" t="str" cm="1">
         <f t="array" ref="E1168">IF(C1168="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1168)*(工作表2!B:B=D1168), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1169" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1169" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1169" s="10"/>
+      <c r="B1169" s="1"/>
+      <c r="C1169" s="1"/>
+      <c r="D1169" s="1"/>
       <c r="E1169" s="11" t="str" cm="1">
         <f t="array" ref="E1169">IF(C1169="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1169)*(工作表2!B:B=D1169), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1170" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1170" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1170" s="10"/>
+      <c r="B1170" s="1"/>
+      <c r="C1170" s="1"/>
+      <c r="D1170" s="1"/>
       <c r="E1170" s="11" t="str" cm="1">
         <f t="array" ref="E1170">IF(C1170="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1170)*(工作表2!B:B=D1170), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1171" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1171" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1171" s="10"/>
+      <c r="B1171" s="1"/>
+      <c r="C1171" s="1"/>
+      <c r="D1171" s="1"/>
       <c r="E1171" s="11" t="str" cm="1">
         <f t="array" ref="E1171">IF(C1171="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1171)*(工作表2!B:B=D1171), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1172" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1172" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1172" s="10"/>
+      <c r="B1172" s="1"/>
+      <c r="C1172" s="1"/>
+      <c r="D1172" s="1"/>
       <c r="E1172" s="11" t="str" cm="1">
         <f t="array" ref="E1172">IF(C1172="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1172)*(工作表2!B:B=D1172), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1173" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1173" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1173" s="10"/>
+      <c r="B1173" s="1"/>
+      <c r="C1173" s="1"/>
+      <c r="D1173" s="1"/>
       <c r="E1173" s="11" t="str" cm="1">
         <f t="array" ref="E1173">IF(C1173="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1173)*(工作表2!B:B=D1173), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1174" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1174" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1174" s="10"/>
+      <c r="B1174" s="1"/>
+      <c r="C1174" s="1"/>
+      <c r="D1174" s="1"/>
       <c r="E1174" s="11" t="str" cm="1">
         <f t="array" ref="E1174">IF(C1174="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1174)*(工作表2!B:B=D1174), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1175" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1175" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1175" s="10"/>
+      <c r="B1175" s="1"/>
+      <c r="C1175" s="1"/>
+      <c r="D1175" s="1"/>
       <c r="E1175" s="11" t="str" cm="1">
         <f t="array" ref="E1175">IF(C1175="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1175)*(工作表2!B:B=D1175), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1176" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1176" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1176" s="10"/>
+      <c r="B1176" s="1"/>
+      <c r="C1176" s="1"/>
+      <c r="D1176" s="1"/>
       <c r="E1176" s="11" t="str" cm="1">
         <f t="array" ref="E1176">IF(C1176="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1176)*(工作表2!B:B=D1176), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1177" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1177" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1177" s="10"/>
+      <c r="B1177" s="1"/>
+      <c r="C1177" s="1"/>
+      <c r="D1177" s="1"/>
       <c r="E1177" s="11" t="str" cm="1">
         <f t="array" ref="E1177">IF(C1177="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1177)*(工作表2!B:B=D1177), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1178" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1178" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1178" s="10"/>
+      <c r="B1178" s="1"/>
+      <c r="C1178" s="1"/>
+      <c r="D1178" s="1"/>
       <c r="E1178" s="11" t="str" cm="1">
         <f t="array" ref="E1178">IF(C1178="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1178)*(工作表2!B:B=D1178), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1179" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1179" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1179" s="10"/>
+      <c r="B1179" s="1"/>
+      <c r="C1179" s="1"/>
+      <c r="D1179" s="1"/>
       <c r="E1179" s="11" t="str" cm="1">
         <f t="array" ref="E1179">IF(C1179="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1179)*(工作表2!B:B=D1179), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1180" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1180" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1180" s="10"/>
+      <c r="B1180" s="1"/>
+      <c r="C1180" s="1"/>
+      <c r="D1180" s="1"/>
       <c r="E1180" s="11" t="str" cm="1">
         <f t="array" ref="E1180">IF(C1180="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1180)*(工作表2!B:B=D1180), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1181" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1181" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1181" s="10"/>
+      <c r="B1181" s="1"/>
+      <c r="C1181" s="1"/>
+      <c r="D1181" s="1"/>
       <c r="E1181" s="11" t="str" cm="1">
         <f t="array" ref="E1181">IF(C1181="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1181)*(工作表2!B:B=D1181), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1182" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1182" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1182" s="10"/>
+      <c r="B1182" s="1"/>
+      <c r="C1182" s="1"/>
+      <c r="D1182" s="1"/>
       <c r="E1182" s="11" t="str" cm="1">
         <f t="array" ref="E1182">IF(C1182="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1182)*(工作表2!B:B=D1182), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1183" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1183" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1183" s="10"/>
+      <c r="B1183" s="1"/>
+      <c r="C1183" s="1"/>
+      <c r="D1183" s="1"/>
       <c r="E1183" s="11" t="str" cm="1">
         <f t="array" ref="E1183">IF(C1183="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1183)*(工作表2!B:B=D1183), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1184" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1184" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1184" s="10"/>
+      <c r="B1184" s="1"/>
+      <c r="C1184" s="1"/>
+      <c r="D1184" s="1"/>
       <c r="E1184" s="11" t="str" cm="1">
         <f t="array" ref="E1184">IF(C1184="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1184)*(工作表2!B:B=D1184), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1185" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1185" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1185" s="10"/>
+      <c r="B1185" s="1"/>
+      <c r="C1185" s="1"/>
+      <c r="D1185" s="1"/>
       <c r="E1185" s="11" t="str" cm="1">
         <f t="array" ref="E1185">IF(C1185="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1185)*(工作表2!B:B=D1185), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1186" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1186" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1186" s="10"/>
+      <c r="B1186" s="1"/>
+      <c r="C1186" s="1"/>
+      <c r="D1186" s="1"/>
       <c r="E1186" s="11" t="str" cm="1">
         <f t="array" ref="E1186">IF(C1186="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1186)*(工作表2!B:B=D1186), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1187" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1187" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1187" s="10"/>
+      <c r="B1187" s="1"/>
+      <c r="C1187" s="1"/>
+      <c r="D1187" s="1"/>
       <c r="E1187" s="11" t="str" cm="1">
         <f t="array" ref="E1187">IF(C1187="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1187)*(工作表2!B:B=D1187), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1188" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1188" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1188" s="10"/>
+      <c r="B1188" s="1"/>
+      <c r="C1188" s="1"/>
+      <c r="D1188" s="1"/>
       <c r="E1188" s="11" t="str" cm="1">
         <f t="array" ref="E1188">IF(C1188="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1188)*(工作表2!B:B=D1188), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1189" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1189" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1189" s="10"/>
+      <c r="B1189" s="1"/>
+      <c r="C1189" s="1"/>
+      <c r="D1189" s="1"/>
       <c r="E1189" s="11" t="str" cm="1">
         <f t="array" ref="E1189">IF(C1189="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1189)*(工作表2!B:B=D1189), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1190" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1190" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1190" s="10"/>
+      <c r="B1190" s="1"/>
+      <c r="C1190" s="1"/>
+      <c r="D1190" s="1"/>
       <c r="E1190" s="11" t="str" cm="1">
         <f t="array" ref="E1190">IF(C1190="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1190)*(工作表2!B:B=D1190), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1191" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1191" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1191" s="10"/>
+      <c r="B1191" s="1"/>
+      <c r="C1191" s="1"/>
+      <c r="D1191" s="1"/>
       <c r="E1191" s="11" t="str" cm="1">
         <f t="array" ref="E1191">IF(C1191="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1191)*(工作表2!B:B=D1191), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1192" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1192" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1192" s="10"/>
+      <c r="B1192" s="1"/>
+      <c r="C1192" s="1"/>
+      <c r="D1192" s="1"/>
       <c r="E1192" s="11" t="str" cm="1">
         <f t="array" ref="E1192">IF(C1192="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1192)*(工作表2!B:B=D1192), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1193" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1193" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1193" s="10"/>
+      <c r="B1193" s="1"/>
+      <c r="C1193" s="1"/>
+      <c r="D1193" s="1"/>
       <c r="E1193" s="11" t="str" cm="1">
         <f t="array" ref="E1193">IF(C1193="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1193)*(工作表2!B:B=D1193), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1194" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1194" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1194" s="10"/>
+      <c r="B1194" s="1"/>
+      <c r="C1194" s="1"/>
+      <c r="D1194" s="1"/>
       <c r="E1194" s="11" t="str" cm="1">
         <f t="array" ref="E1194">IF(C1194="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1194)*(工作表2!B:B=D1194), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1195" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1195" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1195" s="10"/>
+      <c r="B1195" s="1"/>
+      <c r="C1195" s="1"/>
+      <c r="D1195" s="1"/>
       <c r="E1195" s="11" t="str" cm="1">
         <f t="array" ref="E1195">IF(C1195="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1195)*(工作表2!B:B=D1195), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1196" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1196" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1196" s="10"/>
+      <c r="B1196" s="1"/>
+      <c r="C1196" s="1"/>
+      <c r="D1196" s="1"/>
       <c r="E1196" s="11" t="str" cm="1">
         <f t="array" ref="E1196">IF(C1196="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1196)*(工作表2!B:B=D1196), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1197" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1197" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1197" s="10"/>
+      <c r="B1197" s="1"/>
+      <c r="C1197" s="1"/>
+      <c r="D1197" s="1"/>
       <c r="E1197" s="11" t="str" cm="1">
         <f t="array" ref="E1197">IF(C1197="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1197)*(工作表2!B:B=D1197), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1198" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1198" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1198" s="10"/>
+      <c r="B1198" s="1"/>
+      <c r="C1198" s="1"/>
+      <c r="D1198" s="1"/>
       <c r="E1198" s="11" t="str" cm="1">
         <f t="array" ref="E1198">IF(C1198="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1198)*(工作表2!B:B=D1198), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1199" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1199" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1199" s="10"/>
+      <c r="B1199" s="1"/>
+      <c r="C1199" s="1"/>
+      <c r="D1199" s="1"/>
       <c r="E1199" s="11" t="str" cm="1">
         <f t="array" ref="E1199">IF(C1199="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1199)*(工作表2!B:B=D1199), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1200" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1200" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1200" s="10"/>
+      <c r="B1200" s="1"/>
+      <c r="C1200" s="1"/>
+      <c r="D1200" s="1"/>
       <c r="E1200" s="11" t="str" cm="1">
         <f t="array" ref="E1200">IF(C1200="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1200)*(工作表2!B:B=D1200), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1201" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1201" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1201" s="10"/>
+      <c r="B1201" s="1"/>
+      <c r="C1201" s="1"/>
+      <c r="D1201" s="1"/>
       <c r="E1201" s="11" t="str" cm="1">
         <f t="array" ref="E1201">IF(C1201="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1201)*(工作表2!B:B=D1201), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1202" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1202" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1202" s="10"/>
+      <c r="B1202" s="1"/>
+      <c r="C1202" s="1"/>
+      <c r="D1202" s="1"/>
       <c r="E1202" s="11" t="str" cm="1">
         <f t="array" ref="E1202">IF(C1202="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1202)*(工作表2!B:B=D1202), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1203" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1203" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1203" s="10"/>
+      <c r="B1203" s="1"/>
+      <c r="C1203" s="1"/>
+      <c r="D1203" s="1"/>
       <c r="E1203" s="11" t="str" cm="1">
         <f t="array" ref="E1203">IF(C1203="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1203)*(工作表2!B:B=D1203), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1204" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1204" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1204" s="10"/>
+      <c r="B1204" s="1"/>
+      <c r="C1204" s="1"/>
+      <c r="D1204" s="1"/>
       <c r="E1204" s="11" t="str" cm="1">
         <f t="array" ref="E1204">IF(C1204="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1204)*(工作表2!B:B=D1204), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1205" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1205" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1205" s="10"/>
+      <c r="B1205" s="1"/>
+      <c r="C1205" s="1"/>
+      <c r="D1205" s="1"/>
       <c r="E1205" s="11" t="str" cm="1">
         <f t="array" ref="E1205">IF(C1205="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1205)*(工作表2!B:B=D1205), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1206" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1206" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1206" s="10"/>
+      <c r="B1206" s="1"/>
+      <c r="C1206" s="1"/>
+      <c r="D1206" s="1"/>
       <c r="E1206" s="11" t="str" cm="1">
         <f t="array" ref="E1206">IF(C1206="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1206)*(工作表2!B:B=D1206), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1207" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1207" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1207" s="10"/>
+      <c r="B1207" s="1"/>
+      <c r="C1207" s="1"/>
+      <c r="D1207" s="1"/>
       <c r="E1207" s="11" t="str" cm="1">
         <f t="array" ref="E1207">IF(C1207="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1207)*(工作表2!B:B=D1207), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1208" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1208" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1208" s="10"/>
+      <c r="B1208" s="1"/>
+      <c r="C1208" s="1"/>
+      <c r="D1208" s="1"/>
       <c r="E1208" s="11" t="str" cm="1">
         <f t="array" ref="E1208">IF(C1208="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1208)*(工作表2!B:B=D1208), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1209" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1209" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1209" s="10"/>
+      <c r="B1209" s="1"/>
+      <c r="C1209" s="1"/>
+      <c r="D1209" s="1"/>
       <c r="E1209" s="11" t="str" cm="1">
         <f t="array" ref="E1209">IF(C1209="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1209)*(工作表2!B:B=D1209), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1210" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1210" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1210" s="10"/>
+      <c r="B1210" s="1"/>
+      <c r="C1210" s="1"/>
+      <c r="D1210" s="1"/>
       <c r="E1210" s="11" t="str" cm="1">
         <f t="array" ref="E1210">IF(C1210="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1210)*(工作表2!B:B=D1210), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1211" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1211" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1211" s="10"/>
+      <c r="B1211" s="1"/>
+      <c r="C1211" s="1"/>
+      <c r="D1211" s="1"/>
       <c r="E1211" s="11" t="str" cm="1">
         <f t="array" ref="E1211">IF(C1211="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1211)*(工作表2!B:B=D1211), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1212" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1212" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1212" s="10"/>
+      <c r="B1212" s="1"/>
+      <c r="C1212" s="1"/>
+      <c r="D1212" s="1"/>
       <c r="E1212" s="11" t="str" cm="1">
         <f t="array" ref="E1212">IF(C1212="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1212)*(工作表2!B:B=D1212), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1213" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1213" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1213" s="10"/>
+      <c r="B1213" s="1"/>
+      <c r="C1213" s="1"/>
+      <c r="D1213" s="1"/>
       <c r="E1213" s="11" t="str" cm="1">
         <f t="array" ref="E1213">IF(C1213="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1213)*(工作表2!B:B=D1213), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1214" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1214" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1214" s="10"/>
+      <c r="B1214" s="1"/>
+      <c r="C1214" s="1"/>
+      <c r="D1214" s="1"/>
       <c r="E1214" s="11" t="str" cm="1">
         <f t="array" ref="E1214">IF(C1214="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1214)*(工作表2!B:B=D1214), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1215" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1215" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1215" s="10"/>
+      <c r="B1215" s="1"/>
+      <c r="C1215" s="1"/>
+      <c r="D1215" s="1"/>
       <c r="E1215" s="11" t="str" cm="1">
         <f t="array" ref="E1215">IF(C1215="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1215)*(工作表2!B:B=D1215), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1216" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1216" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1216" s="10"/>
+      <c r="B1216" s="1"/>
+      <c r="C1216" s="1"/>
+      <c r="D1216" s="1"/>
       <c r="E1216" s="11" t="str" cm="1">
         <f t="array" ref="E1216">IF(C1216="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1216)*(工作表2!B:B=D1216), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1217" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1217" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1217" s="10"/>
+      <c r="B1217" s="1"/>
+      <c r="C1217" s="1"/>
+      <c r="D1217" s="1"/>
       <c r="E1217" s="11" t="str" cm="1">
         <f t="array" ref="E1217">IF(C1217="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1217)*(工作表2!B:B=D1217), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1218" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1218" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1218" s="10"/>
+      <c r="B1218" s="1"/>
+      <c r="C1218" s="1"/>
+      <c r="D1218" s="1"/>
       <c r="E1218" s="11" t="str" cm="1">
         <f t="array" ref="E1218">IF(C1218="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1218)*(工作表2!B:B=D1218), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1219" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1219" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1219" s="10"/>
+      <c r="B1219" s="1"/>
+      <c r="C1219" s="1"/>
+      <c r="D1219" s="1"/>
       <c r="E1219" s="11" t="str" cm="1">
         <f t="array" ref="E1219">IF(C1219="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1219)*(工作表2!B:B=D1219), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1220" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1220" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1220" s="10"/>
+      <c r="B1220" s="1"/>
+      <c r="C1220" s="1"/>
+      <c r="D1220" s="1"/>
       <c r="E1220" s="11" t="str" cm="1">
         <f t="array" ref="E1220">IF(C1220="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1220)*(工作表2!B:B=D1220), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1221" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1221" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1221" s="10"/>
+      <c r="B1221" s="1"/>
+      <c r="C1221" s="1"/>
+      <c r="D1221" s="1"/>
       <c r="E1221" s="11" t="str" cm="1">
         <f t="array" ref="E1221">IF(C1221="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1221)*(工作表2!B:B=D1221), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1222" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1222" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1222" s="10"/>
+      <c r="B1222" s="1"/>
+      <c r="C1222" s="1"/>
+      <c r="D1222" s="1"/>
       <c r="E1222" s="11" t="str" cm="1">
         <f t="array" ref="E1222">IF(C1222="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1222)*(工作表2!B:B=D1222), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1223" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1223" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1223" s="10"/>
+      <c r="B1223" s="1"/>
+      <c r="C1223" s="1"/>
+      <c r="D1223" s="1"/>
       <c r="E1223" s="11" t="str" cm="1">
         <f t="array" ref="E1223">IF(C1223="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1223)*(工作表2!B:B=D1223), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1224" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1224" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1224" s="10"/>
+      <c r="B1224" s="1"/>
+      <c r="C1224" s="1"/>
+      <c r="D1224" s="1"/>
       <c r="E1224" s="11" t="str" cm="1">
         <f t="array" ref="E1224">IF(C1224="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1224)*(工作表2!B:B=D1224), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1225" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1225" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1225" s="10"/>
+      <c r="B1225" s="1"/>
+      <c r="C1225" s="1"/>
+      <c r="D1225" s="1"/>
       <c r="E1225" s="11" t="str" cm="1">
         <f t="array" ref="E1225">IF(C1225="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1225)*(工作表2!B:B=D1225), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1226" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1226" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1226" s="10"/>
+      <c r="B1226" s="1"/>
+      <c r="C1226" s="1"/>
+      <c r="D1226" s="1"/>
       <c r="E1226" s="11" t="str" cm="1">
         <f t="array" ref="E1226">IF(C1226="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1226)*(工作表2!B:B=D1226), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1227" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1227" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1227" s="10"/>
+      <c r="B1227" s="1"/>
+      <c r="C1227" s="1"/>
+      <c r="D1227" s="1"/>
       <c r="E1227" s="11" t="str" cm="1">
         <f t="array" ref="E1227">IF(C1227="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1227)*(工作表2!B:B=D1227), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1228" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1228" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1228" s="10"/>
+      <c r="B1228" s="1"/>
+      <c r="C1228" s="1"/>
+      <c r="D1228" s="1"/>
       <c r="E1228" s="11" t="str" cm="1">
         <f t="array" ref="E1228">IF(C1228="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1228)*(工作表2!B:B=D1228), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1229" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1229" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1229" s="10"/>
+      <c r="B1229" s="1"/>
+      <c r="C1229" s="1"/>
+      <c r="D1229" s="1"/>
       <c r="E1229" s="11" t="str" cm="1">
         <f t="array" ref="E1229">IF(C1229="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1229)*(工作表2!B:B=D1229), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1230" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1230" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1230" s="10"/>
+      <c r="B1230" s="1"/>
+      <c r="C1230" s="1"/>
+      <c r="D1230" s="1"/>
       <c r="E1230" s="11" t="str" cm="1">
         <f t="array" ref="E1230">IF(C1230="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1230)*(工作表2!B:B=D1230), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1231" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1231" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1231" s="10"/>
+      <c r="B1231" s="1"/>
+      <c r="C1231" s="1"/>
+      <c r="D1231" s="1"/>
       <c r="E1231" s="11" t="str" cm="1">
         <f t="array" ref="E1231">IF(C1231="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1231)*(工作表2!B:B=D1231), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1232" spans="5:5" ht="15.75" customHeight="1">
+    <row r="1232" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1232" s="10"/>
+      <c r="B1232" s="1"/>
+      <c r="C1232" s="1"/>
+      <c r="D1232" s="1"/>
       <c r="E1232" s="11" t="str" cm="1">
         <f t="array" ref="E1232">IF(C1232="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1232)*(工作表2!B:B=D1232), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1233" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1233" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1233" s="10"/>
+      <c r="B1233" s="1"/>
+      <c r="C1233" s="1"/>
+      <c r="D1233" s="1"/>
       <c r="E1233" s="11" t="str" cm="1">
         <f t="array" ref="E1233">IF(C1233="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1233)*(工作表2!B:B=D1233), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1234" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1234" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1234" s="10"/>
+      <c r="B1234" s="1"/>
+      <c r="C1234" s="1"/>
+      <c r="D1234" s="1"/>
       <c r="E1234" s="11" t="str" cm="1">
         <f t="array" ref="E1234">IF(C1234="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1234)*(工作表2!B:B=D1234), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1235" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1235" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1235" s="10"/>
+      <c r="B1235" s="1"/>
+      <c r="C1235" s="1"/>
+      <c r="D1235" s="1"/>
       <c r="E1235" s="11" t="str" cm="1">
         <f t="array" ref="E1235">IF(C1235="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1235)*(工作表2!B:B=D1235), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1236" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1236" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1236" s="10"/>
+      <c r="B1236" s="1"/>
+      <c r="C1236" s="1"/>
+      <c r="D1236" s="1"/>
       <c r="E1236" s="11" t="str" cm="1">
         <f t="array" ref="E1236">IF(C1236="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1236)*(工作表2!B:B=D1236), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1237" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1237" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1237" s="10"/>
+      <c r="B1237" s="1"/>
+      <c r="C1237" s="1"/>
+      <c r="D1237" s="1"/>
       <c r="E1237" s="11" t="str" cm="1">
         <f t="array" ref="E1237">IF(C1237="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1237)*(工作表2!B:B=D1237), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1238" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1238" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1238" s="10"/>
+      <c r="B1238" s="1"/>
+      <c r="C1238" s="1"/>
+      <c r="D1238" s="1"/>
       <c r="E1238" s="11" t="str" cm="1">
         <f t="array" ref="E1238">IF(C1238="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1238)*(工作表2!B:B=D1238), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1239" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1239" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1239" s="10"/>
+      <c r="B1239" s="1"/>
+      <c r="C1239" s="1"/>
+      <c r="D1239" s="1"/>
       <c r="E1239" s="11" t="str" cm="1">
         <f t="array" ref="E1239">IF(C1239="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1239)*(工作表2!B:B=D1239), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1240" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1240" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1240" s="10"/>
+      <c r="B1240" s="1"/>
+      <c r="C1240" s="1"/>
+      <c r="D1240" s="1"/>
       <c r="E1240" s="11" t="str" cm="1">
         <f t="array" ref="E1240">IF(C1240="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1240)*(工作表2!B:B=D1240), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1241" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1241" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1241" s="10"/>
+      <c r="B1241" s="1"/>
+      <c r="C1241" s="1"/>
+      <c r="D1241" s="1"/>
       <c r="E1241" s="11" t="str" cm="1">
         <f t="array" ref="E1241">IF(C1241="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1241)*(工作表2!B:B=D1241), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1242" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1242" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1242" s="10"/>
+      <c r="B1242" s="1"/>
+      <c r="C1242" s="1"/>
+      <c r="D1242" s="1"/>
       <c r="E1242" s="11" t="str" cm="1">
         <f t="array" ref="E1242">IF(C1242="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1242)*(工作表2!B:B=D1242), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1243" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1243" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1243" s="10"/>
+      <c r="B1243" s="1"/>
+      <c r="C1243" s="1"/>
+      <c r="D1243" s="1"/>
       <c r="E1243" s="11" t="str" cm="1">
         <f t="array" ref="E1243">IF(C1243="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1243)*(工作表2!B:B=D1243), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1244" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1244" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1244" s="10"/>
+      <c r="B1244" s="1"/>
+      <c r="C1244" s="1"/>
+      <c r="D1244" s="1"/>
       <c r="E1244" s="11" t="str" cm="1">
         <f t="array" ref="E1244">IF(C1244="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1244)*(工作表2!B:B=D1244), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1245" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1245" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1245" s="10"/>
+      <c r="B1245" s="1"/>
+      <c r="C1245" s="1"/>
+      <c r="D1245" s="1"/>
       <c r="E1245" s="11" t="str" cm="1">
         <f t="array" ref="E1245">IF(C1245="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1245)*(工作表2!B:B=D1245), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1246" spans="2:5" ht="15.75" customHeight="1">
+    <row r="1246" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1246" s="10"/>
+      <c r="B1246" s="1"/>
+      <c r="C1246" s="1"/>
+      <c r="D1246" s="1"/>
       <c r="E1246" s="11" t="str" cm="1">
         <f t="array" ref="E1246">IF(C1246="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1246)*(工作表2!B:B=D1246), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1247" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B1247" s="5"/>
-      <c r="D1247" s="5"/>
+    <row r="1247" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1247" s="10"/>
+      <c r="B1247" s="1"/>
+      <c r="C1247" s="1"/>
+      <c r="D1247" s="1"/>
       <c r="E1247" s="11" t="str" cm="1">
         <f t="array" ref="E1247">IF(C1247="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1247)*(工作表2!B:B=D1247), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1248" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B1248" s="5"/>
-      <c r="D1248" s="5"/>
+    <row r="1248" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1248" s="10"/>
+      <c r="B1248" s="1"/>
+      <c r="C1248" s="1"/>
+      <c r="D1248" s="1"/>
       <c r="E1248" s="11" t="str" cm="1">
         <f t="array" ref="E1248">IF(C1248="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1248)*(工作表2!B:B=D1248), 0)),""))</f>
         <v/>
       </c>
     </row>
     <row r="1249" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B1249" s="5"/>
-      <c r="D1249" s="5"/>
+      <c r="A1249" s="10"/>
+      <c r="B1249" s="1"/>
+      <c r="C1249" s="1"/>
+      <c r="D1249" s="1"/>
       <c r="E1249" s="11" t="str" cm="1">
         <f t="array" ref="E1249">IF(C1249="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1249)*(工作表2!B:B=D1249), 0)),""))</f>
         <v/>
@@ -14761,7 +13697,7 @@
       <c r="A1256" s="10"/>
       <c r="B1256" s="1"/>
       <c r="C1256" s="1"/>
-      <c r="D1256" s="1"/>
+      <c r="D1256" s="7"/>
       <c r="E1256" s="11" t="str" cm="1">
         <f t="array" ref="E1256">IF(C1256="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1256)*(工作表2!B:B=D1256), 0)),""))</f>
         <v/>
@@ -14771,7 +13707,7 @@
       <c r="A1257" s="10"/>
       <c r="B1257" s="1"/>
       <c r="C1257" s="1"/>
-      <c r="D1257" s="1"/>
+      <c r="D1257" s="7"/>
       <c r="E1257" s="11" t="str" cm="1">
         <f t="array" ref="E1257">IF(C1257="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1257)*(工作表2!B:B=D1257), 0)),""))</f>
         <v/>
@@ -14781,7 +13717,7 @@
       <c r="A1258" s="10"/>
       <c r="B1258" s="1"/>
       <c r="C1258" s="1"/>
-      <c r="D1258" s="6"/>
+      <c r="D1258" s="7"/>
       <c r="E1258" s="11" t="str" cm="1">
         <f t="array" ref="E1258">IF(C1258="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1258)*(工作表2!B:B=D1258), 0)),""))</f>
         <v/>
@@ -14791,7 +13727,7 @@
       <c r="A1259" s="10"/>
       <c r="B1259" s="1"/>
       <c r="C1259" s="1"/>
-      <c r="D1259" s="1"/>
+      <c r="D1259" s="7"/>
       <c r="E1259" s="11" t="str" cm="1">
         <f t="array" ref="E1259">IF(C1259="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1259)*(工作表2!B:B=D1259), 0)),""))</f>
         <v/>
@@ -14801,7 +13737,7 @@
       <c r="A1260" s="10"/>
       <c r="B1260" s="1"/>
       <c r="C1260" s="1"/>
-      <c r="D1260" s="1"/>
+      <c r="D1260" s="7"/>
       <c r="E1260" s="11" t="str" cm="1">
         <f t="array" ref="E1260">IF(C1260="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1260)*(工作表2!B:B=D1260), 0)),""))</f>
         <v/>
@@ -14811,7 +13747,7 @@
       <c r="A1261" s="10"/>
       <c r="B1261" s="1"/>
       <c r="C1261" s="1"/>
-      <c r="D1261" s="1"/>
+      <c r="D1261" s="7"/>
       <c r="E1261" s="11" t="str" cm="1">
         <f t="array" ref="E1261">IF(C1261="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1261)*(工作表2!B:B=D1261), 0)),""))</f>
         <v/>
@@ -15061,7 +13997,7 @@
       <c r="A1286" s="10"/>
       <c r="B1286" s="1"/>
       <c r="C1286" s="1"/>
-      <c r="D1286" s="1"/>
+      <c r="D1286" s="7"/>
       <c r="E1286" s="11" t="str" cm="1">
         <f t="array" ref="E1286">IF(C1286="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1286)*(工作表2!B:B=D1286), 0)),""))</f>
         <v/>
@@ -15071,7 +14007,7 @@
       <c r="A1287" s="10"/>
       <c r="B1287" s="1"/>
       <c r="C1287" s="1"/>
-      <c r="D1287" s="1"/>
+      <c r="D1287" s="7"/>
       <c r="E1287" s="11" t="str" cm="1">
         <f t="array" ref="E1287">IF(C1287="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1287)*(工作表2!B:B=D1287), 0)),""))</f>
         <v/>
@@ -15691,7 +14627,7 @@
       <c r="A1349" s="10"/>
       <c r="B1349" s="1"/>
       <c r="C1349" s="1"/>
-      <c r="D1349" s="7"/>
+      <c r="D1349" s="1"/>
       <c r="E1349" s="11" t="str" cm="1">
         <f t="array" ref="E1349">IF(C1349="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1349)*(工作表2!B:B=D1349), 0)),""))</f>
         <v/>
@@ -15701,7 +14637,7 @@
       <c r="A1350" s="10"/>
       <c r="B1350" s="1"/>
       <c r="C1350" s="1"/>
-      <c r="D1350" s="7"/>
+      <c r="D1350" s="1"/>
       <c r="E1350" s="11" t="str" cm="1">
         <f t="array" ref="E1350">IF(C1350="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1350)*(工作表2!B:B=D1350), 0)),""))</f>
         <v/>
@@ -15711,7 +14647,7 @@
       <c r="A1351" s="10"/>
       <c r="B1351" s="1"/>
       <c r="C1351" s="1"/>
-      <c r="D1351" s="7"/>
+      <c r="D1351" s="1"/>
       <c r="E1351" s="11" t="str" cm="1">
         <f t="array" ref="E1351">IF(C1351="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1351)*(工作表2!B:B=D1351), 0)),""))</f>
         <v/>
@@ -15721,7 +14657,7 @@
       <c r="A1352" s="10"/>
       <c r="B1352" s="1"/>
       <c r="C1352" s="1"/>
-      <c r="D1352" s="7"/>
+      <c r="D1352" s="1"/>
       <c r="E1352" s="11" t="str" cm="1">
         <f t="array" ref="E1352">IF(C1352="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1352)*(工作表2!B:B=D1352), 0)),""))</f>
         <v/>
@@ -15731,7 +14667,7 @@
       <c r="A1353" s="10"/>
       <c r="B1353" s="1"/>
       <c r="C1353" s="1"/>
-      <c r="D1353" s="7"/>
+      <c r="D1353" s="1"/>
       <c r="E1353" s="11" t="str" cm="1">
         <f t="array" ref="E1353">IF(C1353="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1353)*(工作表2!B:B=D1353), 0)),""))</f>
         <v/>
@@ -15741,7 +14677,7 @@
       <c r="A1354" s="10"/>
       <c r="B1354" s="1"/>
       <c r="C1354" s="1"/>
-      <c r="D1354" s="7"/>
+      <c r="D1354" s="1"/>
       <c r="E1354" s="11" t="str" cm="1">
         <f t="array" ref="E1354">IF(C1354="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1354)*(工作表2!B:B=D1354), 0)),""))</f>
         <v/>
@@ -15951,7 +14887,7 @@
       <c r="A1375" s="10"/>
       <c r="B1375" s="1"/>
       <c r="C1375" s="1"/>
-      <c r="D1375" s="1"/>
+      <c r="D1375" s="7"/>
       <c r="E1375" s="11" t="str" cm="1">
         <f t="array" ref="E1375">IF(C1375="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1375)*(工作表2!B:B=D1375), 0)),""))</f>
         <v/>
@@ -15961,7 +14897,7 @@
       <c r="A1376" s="10"/>
       <c r="B1376" s="1"/>
       <c r="C1376" s="1"/>
-      <c r="D1376" s="1"/>
+      <c r="D1376" s="7"/>
       <c r="E1376" s="11" t="str" cm="1">
         <f t="array" ref="E1376">IF(C1376="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1376)*(工作表2!B:B=D1376), 0)),""))</f>
         <v/>
@@ -15971,7 +14907,7 @@
       <c r="A1377" s="10"/>
       <c r="B1377" s="1"/>
       <c r="C1377" s="1"/>
-      <c r="D1377" s="1"/>
+      <c r="D1377" s="7"/>
       <c r="E1377" s="11" t="str" cm="1">
         <f t="array" ref="E1377">IF(C1377="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1377)*(工作表2!B:B=D1377), 0)),""))</f>
         <v/>
@@ -15991,7 +14927,7 @@
       <c r="A1379" s="10"/>
       <c r="B1379" s="1"/>
       <c r="C1379" s="1"/>
-      <c r="D1379" s="7"/>
+      <c r="D1379" s="1"/>
       <c r="E1379" s="11" t="str" cm="1">
         <f t="array" ref="E1379">IF(C1379="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1379)*(工作表2!B:B=D1379), 0)),""))</f>
         <v/>
@@ -16001,7 +14937,7 @@
       <c r="A1380" s="10"/>
       <c r="B1380" s="1"/>
       <c r="C1380" s="1"/>
-      <c r="D1380" s="7"/>
+      <c r="D1380" s="1"/>
       <c r="E1380" s="11" t="str" cm="1">
         <f t="array" ref="E1380">IF(C1380="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1380)*(工作表2!B:B=D1380), 0)),""))</f>
         <v/>
@@ -16431,7 +15367,7 @@
       <c r="A1423" s="10"/>
       <c r="B1423" s="1"/>
       <c r="C1423" s="1"/>
-      <c r="D1423" s="1"/>
+      <c r="D1423" s="3"/>
       <c r="E1423" s="11" t="str" cm="1">
         <f t="array" ref="E1423">IF(C1423="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1423)*(工作表2!B:B=D1423), 0)),""))</f>
         <v/>
@@ -16881,7 +15817,7 @@
       <c r="A1468" s="10"/>
       <c r="B1468" s="1"/>
       <c r="C1468" s="1"/>
-      <c r="D1468" s="7"/>
+      <c r="D1468" s="1"/>
       <c r="E1468" s="11" t="str" cm="1">
         <f t="array" ref="E1468">IF(C1468="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1468)*(工作表2!B:B=D1468), 0)),""))</f>
         <v/>
@@ -16891,7 +15827,7 @@
       <c r="A1469" s="10"/>
       <c r="B1469" s="1"/>
       <c r="C1469" s="1"/>
-      <c r="D1469" s="7"/>
+      <c r="D1469" s="1"/>
       <c r="E1469" s="11" t="str" cm="1">
         <f t="array" ref="E1469">IF(C1469="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1469)*(工作表2!B:B=D1469), 0)),""))</f>
         <v/>
@@ -16901,7 +15837,7 @@
       <c r="A1470" s="10"/>
       <c r="B1470" s="1"/>
       <c r="C1470" s="1"/>
-      <c r="D1470" s="7"/>
+      <c r="D1470" s="1"/>
       <c r="E1470" s="11" t="str" cm="1">
         <f t="array" ref="E1470">IF(C1470="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1470)*(工作表2!B:B=D1470), 0)),""))</f>
         <v/>
@@ -17361,7 +16297,7 @@
       <c r="A1516" s="10"/>
       <c r="B1516" s="1"/>
       <c r="C1516" s="1"/>
-      <c r="D1516" s="3"/>
+      <c r="D1516" s="1"/>
       <c r="E1516" s="11" t="str" cm="1">
         <f t="array" ref="E1516">IF(C1516="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1516)*(工作表2!B:B=D1516), 0)),""))</f>
         <v/>
@@ -17738,962 +16674,32 @@
       </c>
     </row>
     <row r="1554" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1554" s="10"/>
-      <c r="B1554" s="1"/>
-      <c r="C1554" s="1"/>
-      <c r="D1554" s="1"/>
       <c r="E1554" s="11" t="str" cm="1">
         <f t="array" ref="E1554">IF(C1554="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1554)*(工作表2!B:B=D1554), 0)),""))</f>
         <v/>
       </c>
     </row>
     <row r="1555" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1555" s="10"/>
-      <c r="B1555" s="1"/>
-      <c r="C1555" s="1"/>
-      <c r="D1555" s="1"/>
       <c r="E1555" s="11" t="str" cm="1">
         <f t="array" ref="E1555">IF(C1555="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1555)*(工作表2!B:B=D1555), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1556" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1556" s="10"/>
-      <c r="B1556" s="1"/>
-      <c r="C1556" s="1"/>
-      <c r="D1556" s="1"/>
+    <row r="1556" spans="1:5" ht="70" customHeight="1">
       <c r="E1556" s="11" t="str" cm="1">
         <f t="array" ref="E1556">IF(C1556="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1556)*(工作表2!B:B=D1556), 0)),""))</f>
         <v/>
       </c>
     </row>
-    <row r="1557" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1557" s="10"/>
-      <c r="B1557" s="1"/>
-      <c r="C1557" s="1"/>
-      <c r="D1557" s="1"/>
-      <c r="E1557" s="11" t="str" cm="1">
-        <f t="array" ref="E1557">IF(C1557="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1557)*(工作表2!B:B=D1557), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1558" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1558" s="10"/>
-      <c r="B1558" s="1"/>
-      <c r="C1558" s="1"/>
-      <c r="D1558" s="1"/>
-      <c r="E1558" s="11" t="str" cm="1">
-        <f t="array" ref="E1558">IF(C1558="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1558)*(工作表2!B:B=D1558), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1559" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1559" s="10"/>
-      <c r="B1559" s="1"/>
-      <c r="C1559" s="1"/>
-      <c r="D1559" s="1"/>
-      <c r="E1559" s="11" t="str" cm="1">
-        <f t="array" ref="E1559">IF(C1559="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1559)*(工作表2!B:B=D1559), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1560" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1560" s="10"/>
-      <c r="B1560" s="1"/>
-      <c r="C1560" s="1"/>
-      <c r="D1560" s="1"/>
-      <c r="E1560" s="11" t="str" cm="1">
-        <f t="array" ref="E1560">IF(C1560="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1560)*(工作表2!B:B=D1560), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1561" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1561" s="10"/>
-      <c r="B1561" s="1"/>
-      <c r="C1561" s="1"/>
-      <c r="D1561" s="1"/>
-      <c r="E1561" s="11" t="str" cm="1">
-        <f t="array" ref="E1561">IF(C1561="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1561)*(工作表2!B:B=D1561), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1562" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1562" s="10"/>
-      <c r="B1562" s="1"/>
-      <c r="C1562" s="1"/>
-      <c r="D1562" s="1"/>
-      <c r="E1562" s="11" t="str" cm="1">
-        <f t="array" ref="E1562">IF(C1562="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1562)*(工作表2!B:B=D1562), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1563" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1563" s="10"/>
-      <c r="B1563" s="1"/>
-      <c r="C1563" s="1"/>
-      <c r="D1563" s="1"/>
-      <c r="E1563" s="11" t="str" cm="1">
-        <f t="array" ref="E1563">IF(C1563="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1563)*(工作表2!B:B=D1563), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1564" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1564" s="10"/>
-      <c r="B1564" s="1"/>
-      <c r="C1564" s="1"/>
-      <c r="D1564" s="1"/>
-      <c r="E1564" s="11" t="str" cm="1">
-        <f t="array" ref="E1564">IF(C1564="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1564)*(工作表2!B:B=D1564), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1565" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1565" s="10"/>
-      <c r="B1565" s="1"/>
-      <c r="C1565" s="1"/>
-      <c r="D1565" s="1"/>
-      <c r="E1565" s="11" t="str" cm="1">
-        <f t="array" ref="E1565">IF(C1565="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1565)*(工作表2!B:B=D1565), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1566" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1566" s="10"/>
-      <c r="B1566" s="1"/>
-      <c r="C1566" s="1"/>
-      <c r="D1566" s="1"/>
-      <c r="E1566" s="11" t="str" cm="1">
-        <f t="array" ref="E1566">IF(C1566="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1566)*(工作表2!B:B=D1566), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1567" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1567" s="10"/>
-      <c r="B1567" s="1"/>
-      <c r="C1567" s="1"/>
-      <c r="D1567" s="1"/>
-      <c r="E1567" s="11" t="str" cm="1">
-        <f t="array" ref="E1567">IF(C1567="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1567)*(工作表2!B:B=D1567), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1568" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1568" s="10"/>
-      <c r="B1568" s="1"/>
-      <c r="C1568" s="1"/>
-      <c r="D1568" s="1"/>
-      <c r="E1568" s="11" t="str" cm="1">
-        <f t="array" ref="E1568">IF(C1568="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1568)*(工作表2!B:B=D1568), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1569" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1569" s="10"/>
-      <c r="B1569" s="1"/>
-      <c r="C1569" s="1"/>
-      <c r="D1569" s="1"/>
-      <c r="E1569" s="11" t="str" cm="1">
-        <f t="array" ref="E1569">IF(C1569="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1569)*(工作表2!B:B=D1569), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1570" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1570" s="10"/>
-      <c r="B1570" s="1"/>
-      <c r="C1570" s="1"/>
-      <c r="D1570" s="1"/>
-      <c r="E1570" s="11" t="str" cm="1">
-        <f t="array" ref="E1570">IF(C1570="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1570)*(工作表2!B:B=D1570), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1571" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1571" s="10"/>
-      <c r="B1571" s="1"/>
-      <c r="C1571" s="1"/>
-      <c r="D1571" s="1"/>
-      <c r="E1571" s="11" t="str" cm="1">
-        <f t="array" ref="E1571">IF(C1571="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1571)*(工作表2!B:B=D1571), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1572" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1572" s="10"/>
-      <c r="B1572" s="1"/>
-      <c r="C1572" s="1"/>
-      <c r="D1572" s="1"/>
-      <c r="E1572" s="11" t="str" cm="1">
-        <f t="array" ref="E1572">IF(C1572="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1572)*(工作表2!B:B=D1572), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1573" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1573" s="10"/>
-      <c r="B1573" s="1"/>
-      <c r="C1573" s="1"/>
-      <c r="D1573" s="1"/>
-      <c r="E1573" s="11" t="str" cm="1">
-        <f t="array" ref="E1573">IF(C1573="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1573)*(工作表2!B:B=D1573), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1574" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1574" s="10"/>
-      <c r="B1574" s="1"/>
-      <c r="C1574" s="1"/>
-      <c r="D1574" s="1"/>
-      <c r="E1574" s="11" t="str" cm="1">
-        <f t="array" ref="E1574">IF(C1574="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1574)*(工作表2!B:B=D1574), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1575" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1575" s="10"/>
-      <c r="B1575" s="1"/>
-      <c r="C1575" s="1"/>
-      <c r="D1575" s="1"/>
-      <c r="E1575" s="11" t="str" cm="1">
-        <f t="array" ref="E1575">IF(C1575="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1575)*(工作表2!B:B=D1575), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1576" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1576" s="10"/>
-      <c r="B1576" s="1"/>
-      <c r="C1576" s="1"/>
-      <c r="D1576" s="1"/>
-      <c r="E1576" s="11" t="str" cm="1">
-        <f t="array" ref="E1576">IF(C1576="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1576)*(工作表2!B:B=D1576), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1577" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1577" s="10"/>
-      <c r="B1577" s="1"/>
-      <c r="C1577" s="1"/>
-      <c r="D1577" s="1"/>
-      <c r="E1577" s="11" t="str" cm="1">
-        <f t="array" ref="E1577">IF(C1577="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1577)*(工作表2!B:B=D1577), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1578" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1578" s="10"/>
-      <c r="B1578" s="1"/>
-      <c r="C1578" s="1"/>
-      <c r="D1578" s="1"/>
-      <c r="E1578" s="11" t="str" cm="1">
-        <f t="array" ref="E1578">IF(C1578="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1578)*(工作表2!B:B=D1578), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1579" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1579" s="10"/>
-      <c r="B1579" s="1"/>
-      <c r="C1579" s="1"/>
-      <c r="D1579" s="1"/>
-      <c r="E1579" s="11" t="str" cm="1">
-        <f t="array" ref="E1579">IF(C1579="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1579)*(工作表2!B:B=D1579), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1580" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1580" s="10"/>
-      <c r="B1580" s="1"/>
-      <c r="C1580" s="1"/>
-      <c r="D1580" s="1"/>
-      <c r="E1580" s="11" t="str" cm="1">
-        <f t="array" ref="E1580">IF(C1580="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1580)*(工作表2!B:B=D1580), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1581" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1581" s="10"/>
-      <c r="B1581" s="1"/>
-      <c r="C1581" s="1"/>
-      <c r="D1581" s="1"/>
-      <c r="E1581" s="11" t="str" cm="1">
-        <f t="array" ref="E1581">IF(C1581="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1581)*(工作表2!B:B=D1581), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1582" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1582" s="10"/>
-      <c r="B1582" s="1"/>
-      <c r="C1582" s="1"/>
-      <c r="D1582" s="1"/>
-      <c r="E1582" s="11" t="str" cm="1">
-        <f t="array" ref="E1582">IF(C1582="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1582)*(工作表2!B:B=D1582), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1583" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1583" s="10"/>
-      <c r="B1583" s="1"/>
-      <c r="C1583" s="1"/>
-      <c r="D1583" s="1"/>
-      <c r="E1583" s="11" t="str" cm="1">
-        <f t="array" ref="E1583">IF(C1583="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1583)*(工作表2!B:B=D1583), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1584" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1584" s="10"/>
-      <c r="B1584" s="1"/>
-      <c r="C1584" s="1"/>
-      <c r="D1584" s="1"/>
-      <c r="E1584" s="11" t="str" cm="1">
-        <f t="array" ref="E1584">IF(C1584="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1584)*(工作表2!B:B=D1584), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1585" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1585" s="10"/>
-      <c r="B1585" s="1"/>
-      <c r="C1585" s="1"/>
-      <c r="D1585" s="1"/>
-      <c r="E1585" s="11" t="str" cm="1">
-        <f t="array" ref="E1585">IF(C1585="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1585)*(工作表2!B:B=D1585), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1586" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1586" s="10"/>
-      <c r="B1586" s="1"/>
-      <c r="C1586" s="1"/>
-      <c r="D1586" s="1"/>
-      <c r="E1586" s="11" t="str" cm="1">
-        <f t="array" ref="E1586">IF(C1586="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1586)*(工作表2!B:B=D1586), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1587" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1587" s="10"/>
-      <c r="B1587" s="1"/>
-      <c r="C1587" s="1"/>
-      <c r="D1587" s="1"/>
-      <c r="E1587" s="11" t="str" cm="1">
-        <f t="array" ref="E1587">IF(C1587="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1587)*(工作表2!B:B=D1587), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1588" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1588" s="10"/>
-      <c r="B1588" s="1"/>
-      <c r="C1588" s="1"/>
-      <c r="D1588" s="1"/>
-      <c r="E1588" s="11" t="str" cm="1">
-        <f t="array" ref="E1588">IF(C1588="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1588)*(工作表2!B:B=D1588), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1589" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1589" s="10"/>
-      <c r="B1589" s="1"/>
-      <c r="C1589" s="1"/>
-      <c r="D1589" s="1"/>
-      <c r="E1589" s="11" t="str" cm="1">
-        <f t="array" ref="E1589">IF(C1589="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1589)*(工作表2!B:B=D1589), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1590" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1590" s="10"/>
-      <c r="B1590" s="1"/>
-      <c r="C1590" s="1"/>
-      <c r="D1590" s="1"/>
-      <c r="E1590" s="11" t="str" cm="1">
-        <f t="array" ref="E1590">IF(C1590="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1590)*(工作表2!B:B=D1590), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1591" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1591" s="10"/>
-      <c r="B1591" s="1"/>
-      <c r="C1591" s="1"/>
-      <c r="D1591" s="1"/>
-      <c r="E1591" s="11" t="str" cm="1">
-        <f t="array" ref="E1591">IF(C1591="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1591)*(工作表2!B:B=D1591), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1592" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1592" s="10"/>
-      <c r="B1592" s="1"/>
-      <c r="C1592" s="1"/>
-      <c r="D1592" s="1"/>
-      <c r="E1592" s="11" t="str" cm="1">
-        <f t="array" ref="E1592">IF(C1592="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1592)*(工作表2!B:B=D1592), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1593" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1593" s="10"/>
-      <c r="B1593" s="1"/>
-      <c r="C1593" s="1"/>
-      <c r="D1593" s="1"/>
-      <c r="E1593" s="11" t="str" cm="1">
-        <f t="array" ref="E1593">IF(C1593="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1593)*(工作表2!B:B=D1593), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1594" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1594" s="10"/>
-      <c r="B1594" s="1"/>
-      <c r="C1594" s="1"/>
-      <c r="D1594" s="1"/>
-      <c r="E1594" s="11" t="str" cm="1">
-        <f t="array" ref="E1594">IF(C1594="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1594)*(工作表2!B:B=D1594), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1595" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1595" s="10"/>
-      <c r="B1595" s="1"/>
-      <c r="C1595" s="1"/>
-      <c r="D1595" s="1"/>
-      <c r="E1595" s="11" t="str" cm="1">
-        <f t="array" ref="E1595">IF(C1595="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1595)*(工作表2!B:B=D1595), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1596" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1596" s="10"/>
-      <c r="B1596" s="1"/>
-      <c r="C1596" s="1"/>
-      <c r="D1596" s="1"/>
-      <c r="E1596" s="11" t="str" cm="1">
-        <f t="array" ref="E1596">IF(C1596="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1596)*(工作表2!B:B=D1596), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1597" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1597" s="10"/>
-      <c r="B1597" s="1"/>
-      <c r="C1597" s="1"/>
-      <c r="D1597" s="1"/>
-      <c r="E1597" s="11" t="str" cm="1">
-        <f t="array" ref="E1597">IF(C1597="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1597)*(工作表2!B:B=D1597), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1598" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1598" s="10"/>
-      <c r="B1598" s="1"/>
-      <c r="C1598" s="1"/>
-      <c r="D1598" s="1"/>
-      <c r="E1598" s="11" t="str" cm="1">
-        <f t="array" ref="E1598">IF(C1598="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1598)*(工作表2!B:B=D1598), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1599" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1599" s="10"/>
-      <c r="B1599" s="1"/>
-      <c r="C1599" s="1"/>
-      <c r="D1599" s="1"/>
-      <c r="E1599" s="11" t="str" cm="1">
-        <f t="array" ref="E1599">IF(C1599="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1599)*(工作表2!B:B=D1599), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1600" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1600" s="10"/>
-      <c r="B1600" s="1"/>
-      <c r="C1600" s="1"/>
-      <c r="D1600" s="1"/>
-      <c r="E1600" s="11" t="str" cm="1">
-        <f t="array" ref="E1600">IF(C1600="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1600)*(工作表2!B:B=D1600), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1601" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1601" s="10"/>
-      <c r="B1601" s="1"/>
-      <c r="C1601" s="1"/>
-      <c r="D1601" s="1"/>
-      <c r="E1601" s="11" t="str" cm="1">
-        <f t="array" ref="E1601">IF(C1601="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1601)*(工作表2!B:B=D1601), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1602" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1602" s="10"/>
-      <c r="B1602" s="1"/>
-      <c r="C1602" s="1"/>
-      <c r="D1602" s="1"/>
-      <c r="E1602" s="11" t="str" cm="1">
-        <f t="array" ref="E1602">IF(C1602="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1602)*(工作表2!B:B=D1602), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1603" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1603" s="10"/>
-      <c r="B1603" s="1"/>
-      <c r="C1603" s="1"/>
-      <c r="D1603" s="1"/>
-      <c r="E1603" s="11" t="str" cm="1">
-        <f t="array" ref="E1603">IF(C1603="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1603)*(工作表2!B:B=D1603), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1604" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1604" s="10"/>
-      <c r="B1604" s="1"/>
-      <c r="C1604" s="1"/>
-      <c r="D1604" s="1"/>
-      <c r="E1604" s="11" t="str" cm="1">
-        <f t="array" ref="E1604">IF(C1604="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1604)*(工作表2!B:B=D1604), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1605" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1605" s="10"/>
-      <c r="B1605" s="1"/>
-      <c r="C1605" s="1"/>
-      <c r="D1605" s="1"/>
-      <c r="E1605" s="11" t="str" cm="1">
-        <f t="array" ref="E1605">IF(C1605="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1605)*(工作表2!B:B=D1605), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1606" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1606" s="10"/>
-      <c r="B1606" s="1"/>
-      <c r="C1606" s="1"/>
-      <c r="D1606" s="1"/>
-      <c r="E1606" s="11" t="str" cm="1">
-        <f t="array" ref="E1606">IF(C1606="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1606)*(工作表2!B:B=D1606), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1607" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1607" s="10"/>
-      <c r="B1607" s="1"/>
-      <c r="C1607" s="1"/>
-      <c r="D1607" s="1"/>
-      <c r="E1607" s="11" t="str" cm="1">
-        <f t="array" ref="E1607">IF(C1607="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1607)*(工作表2!B:B=D1607), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1608" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1608" s="10"/>
-      <c r="B1608" s="1"/>
-      <c r="C1608" s="1"/>
-      <c r="D1608" s="1"/>
-      <c r="E1608" s="11" t="str" cm="1">
-        <f t="array" ref="E1608">IF(C1608="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1608)*(工作表2!B:B=D1608), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1609" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1609" s="10"/>
-      <c r="B1609" s="1"/>
-      <c r="C1609" s="1"/>
-      <c r="D1609" s="1"/>
-      <c r="E1609" s="11" t="str" cm="1">
-        <f t="array" ref="E1609">IF(C1609="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1609)*(工作表2!B:B=D1609), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1610" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1610" s="10"/>
-      <c r="B1610" s="1"/>
-      <c r="C1610" s="1"/>
-      <c r="D1610" s="1"/>
-      <c r="E1610" s="11" t="str" cm="1">
-        <f t="array" ref="E1610">IF(C1610="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1610)*(工作表2!B:B=D1610), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1611" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1611" s="10"/>
-      <c r="B1611" s="1"/>
-      <c r="C1611" s="1"/>
-      <c r="D1611" s="1"/>
-      <c r="E1611" s="11" t="str" cm="1">
-        <f t="array" ref="E1611">IF(C1611="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1611)*(工作表2!B:B=D1611), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1612" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1612" s="10"/>
-      <c r="B1612" s="1"/>
-      <c r="C1612" s="1"/>
-      <c r="D1612" s="1"/>
-      <c r="E1612" s="11" t="str" cm="1">
-        <f t="array" ref="E1612">IF(C1612="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1612)*(工作表2!B:B=D1612), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1613" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1613" s="10"/>
-      <c r="B1613" s="1"/>
-      <c r="C1613" s="1"/>
-      <c r="D1613" s="1"/>
-      <c r="E1613" s="11" t="str" cm="1">
-        <f t="array" ref="E1613">IF(C1613="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1613)*(工作表2!B:B=D1613), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1614" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1614" s="10"/>
-      <c r="B1614" s="1"/>
-      <c r="C1614" s="1"/>
-      <c r="D1614" s="1"/>
-      <c r="E1614" s="11" t="str" cm="1">
-        <f t="array" ref="E1614">IF(C1614="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1614)*(工作表2!B:B=D1614), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1615" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1615" s="10"/>
-      <c r="B1615" s="1"/>
-      <c r="C1615" s="1"/>
-      <c r="D1615" s="1"/>
-      <c r="E1615" s="11" t="str" cm="1">
-        <f t="array" ref="E1615">IF(C1615="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1615)*(工作表2!B:B=D1615), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1616" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1616" s="10"/>
-      <c r="B1616" s="1"/>
-      <c r="C1616" s="1"/>
-      <c r="D1616" s="1"/>
-      <c r="E1616" s="11" t="str" cm="1">
-        <f t="array" ref="E1616">IF(C1616="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1616)*(工作表2!B:B=D1616), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1617" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1617" s="10"/>
-      <c r="B1617" s="1"/>
-      <c r="C1617" s="1"/>
-      <c r="D1617" s="1"/>
-      <c r="E1617" s="11" t="str" cm="1">
-        <f t="array" ref="E1617">IF(C1617="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1617)*(工作表2!B:B=D1617), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1618" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1618" s="10"/>
-      <c r="B1618" s="1"/>
-      <c r="C1618" s="1"/>
-      <c r="D1618" s="1"/>
-      <c r="E1618" s="11" t="str" cm="1">
-        <f t="array" ref="E1618">IF(C1618="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1618)*(工作表2!B:B=D1618), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1619" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1619" s="10"/>
-      <c r="B1619" s="1"/>
-      <c r="C1619" s="1"/>
-      <c r="D1619" s="1"/>
-      <c r="E1619" s="11" t="str" cm="1">
-        <f t="array" ref="E1619">IF(C1619="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1619)*(工作表2!B:B=D1619), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1620" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1620" s="10"/>
-      <c r="B1620" s="1"/>
-      <c r="C1620" s="1"/>
-      <c r="D1620" s="1"/>
-      <c r="E1620" s="11" t="str" cm="1">
-        <f t="array" ref="E1620">IF(C1620="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1620)*(工作表2!B:B=D1620), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1621" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1621" s="10"/>
-      <c r="B1621" s="1"/>
-      <c r="C1621" s="1"/>
-      <c r="D1621" s="1"/>
-      <c r="E1621" s="11" t="str" cm="1">
-        <f t="array" ref="E1621">IF(C1621="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1621)*(工作表2!B:B=D1621), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1622" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1622" s="10"/>
-      <c r="B1622" s="1"/>
-      <c r="C1622" s="1"/>
-      <c r="D1622" s="1"/>
-      <c r="E1622" s="11" t="str" cm="1">
-        <f t="array" ref="E1622">IF(C1622="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1622)*(工作表2!B:B=D1622), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1623" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1623" s="10"/>
-      <c r="B1623" s="1"/>
-      <c r="C1623" s="1"/>
-      <c r="D1623" s="1"/>
-      <c r="E1623" s="11" t="str" cm="1">
-        <f t="array" ref="E1623">IF(C1623="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1623)*(工作表2!B:B=D1623), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1624" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1624" s="10"/>
-      <c r="B1624" s="1"/>
-      <c r="C1624" s="1"/>
-      <c r="D1624" s="1"/>
-      <c r="E1624" s="11" t="str" cm="1">
-        <f t="array" ref="E1624">IF(C1624="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1624)*(工作表2!B:B=D1624), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1625" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1625" s="10"/>
-      <c r="B1625" s="1"/>
-      <c r="C1625" s="1"/>
-      <c r="D1625" s="1"/>
-      <c r="E1625" s="11" t="str" cm="1">
-        <f t="array" ref="E1625">IF(C1625="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1625)*(工作表2!B:B=D1625), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1626" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1626" s="10"/>
-      <c r="B1626" s="1"/>
-      <c r="C1626" s="1"/>
-      <c r="D1626" s="1"/>
-      <c r="E1626" s="11" t="str" cm="1">
-        <f t="array" ref="E1626">IF(C1626="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1626)*(工作表2!B:B=D1626), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1627" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1627" s="10"/>
-      <c r="B1627" s="1"/>
-      <c r="C1627" s="1"/>
-      <c r="D1627" s="1"/>
-      <c r="E1627" s="11" t="str" cm="1">
-        <f t="array" ref="E1627">IF(C1627="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1627)*(工作表2!B:B=D1627), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1628" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1628" s="10"/>
-      <c r="B1628" s="1"/>
-      <c r="C1628" s="1"/>
-      <c r="D1628" s="1"/>
-      <c r="E1628" s="11" t="str" cm="1">
-        <f t="array" ref="E1628">IF(C1628="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1628)*(工作表2!B:B=D1628), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1629" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1629" s="10"/>
-      <c r="B1629" s="1"/>
-      <c r="C1629" s="1"/>
-      <c r="D1629" s="1"/>
-      <c r="E1629" s="11" t="str" cm="1">
-        <f t="array" ref="E1629">IF(C1629="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1629)*(工作表2!B:B=D1629), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1630" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1630" s="10"/>
-      <c r="B1630" s="1"/>
-      <c r="C1630" s="1"/>
-      <c r="D1630" s="1"/>
-      <c r="E1630" s="11" t="str" cm="1">
-        <f t="array" ref="E1630">IF(C1630="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1630)*(工作表2!B:B=D1630), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1631" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1631" s="10"/>
-      <c r="B1631" s="1"/>
-      <c r="C1631" s="1"/>
-      <c r="D1631" s="1"/>
-      <c r="E1631" s="11" t="str" cm="1">
-        <f t="array" ref="E1631">IF(C1631="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1631)*(工作表2!B:B=D1631), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1632" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1632" s="10"/>
-      <c r="B1632" s="1"/>
-      <c r="C1632" s="1"/>
-      <c r="D1632" s="1"/>
-      <c r="E1632" s="11" t="str" cm="1">
-        <f t="array" ref="E1632">IF(C1632="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1632)*(工作表2!B:B=D1632), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1633" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1633" s="10"/>
-      <c r="B1633" s="1"/>
-      <c r="C1633" s="1"/>
-      <c r="D1633" s="1"/>
-      <c r="E1633" s="11" t="str" cm="1">
-        <f t="array" ref="E1633">IF(C1633="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1633)*(工作表2!B:B=D1633), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1634" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1634" s="10"/>
-      <c r="B1634" s="1"/>
-      <c r="C1634" s="1"/>
-      <c r="D1634" s="1"/>
-      <c r="E1634" s="11" t="str" cm="1">
-        <f t="array" ref="E1634">IF(C1634="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1634)*(工作表2!B:B=D1634), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1635" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1635" s="10"/>
-      <c r="B1635" s="1"/>
-      <c r="C1635" s="1"/>
-      <c r="D1635" s="1"/>
-      <c r="E1635" s="11" t="str" cm="1">
-        <f t="array" ref="E1635">IF(C1635="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1635)*(工作表2!B:B=D1635), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1636" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1636" s="10"/>
-      <c r="B1636" s="1"/>
-      <c r="C1636" s="1"/>
-      <c r="D1636" s="1"/>
-      <c r="E1636" s="11" t="str" cm="1">
-        <f t="array" ref="E1636">IF(C1636="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1636)*(工作表2!B:B=D1636), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1637" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1637" s="10"/>
-      <c r="B1637" s="1"/>
-      <c r="C1637" s="1"/>
-      <c r="D1637" s="1"/>
-      <c r="E1637" s="11" t="str" cm="1">
-        <f t="array" ref="E1637">IF(C1637="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1637)*(工作表2!B:B=D1637), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1638" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1638" s="10"/>
-      <c r="B1638" s="1"/>
-      <c r="C1638" s="1"/>
-      <c r="D1638" s="1"/>
-      <c r="E1638" s="11" t="str" cm="1">
-        <f t="array" ref="E1638">IF(C1638="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1638)*(工作表2!B:B=D1638), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1639" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1639" s="10"/>
-      <c r="B1639" s="1"/>
-      <c r="C1639" s="1"/>
-      <c r="D1639" s="1"/>
-      <c r="E1639" s="11" t="str" cm="1">
-        <f t="array" ref="E1639">IF(C1639="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1639)*(工作表2!B:B=D1639), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1640" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1640" s="10"/>
-      <c r="B1640" s="1"/>
-      <c r="C1640" s="1"/>
-      <c r="D1640" s="1"/>
-      <c r="E1640" s="11" t="str" cm="1">
-        <f t="array" ref="E1640">IF(C1640="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1640)*(工作表2!B:B=D1640), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1641" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1641" s="10"/>
-      <c r="B1641" s="1"/>
-      <c r="C1641" s="1"/>
-      <c r="D1641" s="1"/>
-      <c r="E1641" s="11" t="str" cm="1">
-        <f t="array" ref="E1641">IF(C1641="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1641)*(工作表2!B:B=D1641), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1642" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1642" s="10"/>
-      <c r="B1642" s="1"/>
-      <c r="C1642" s="1"/>
-      <c r="D1642" s="1"/>
-      <c r="E1642" s="11" t="str" cm="1">
-        <f t="array" ref="E1642">IF(C1642="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1642)*(工作表2!B:B=D1642), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1643" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1643" s="10"/>
-      <c r="B1643" s="1"/>
-      <c r="C1643" s="1"/>
-      <c r="D1643" s="1"/>
-      <c r="E1643" s="11" t="str" cm="1">
-        <f t="array" ref="E1643">IF(C1643="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1643)*(工作表2!B:B=D1643), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1644" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1644" s="10"/>
-      <c r="B1644" s="1"/>
-      <c r="C1644" s="1"/>
-      <c r="D1644" s="1"/>
-      <c r="E1644" s="11" t="str" cm="1">
-        <f t="array" ref="E1644">IF(C1644="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1644)*(工作表2!B:B=D1644), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1645" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1645" s="10"/>
-      <c r="B1645" s="1"/>
-      <c r="C1645" s="1"/>
-      <c r="D1645" s="1"/>
-      <c r="E1645" s="11" t="str" cm="1">
-        <f t="array" ref="E1645">IF(C1645="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1645)*(工作表2!B:B=D1645), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1646" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1646" s="10"/>
-      <c r="B1646" s="1"/>
-      <c r="C1646" s="1"/>
-      <c r="D1646" s="1"/>
-      <c r="E1646" s="11" t="str" cm="1">
-        <f t="array" ref="E1646">IF(C1646="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1646)*(工作表2!B:B=D1646), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1647" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1647" s="11" t="str" cm="1">
-        <f t="array" ref="E1647">IF(C1647="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1647)*(工作表2!B:B=D1647), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1648" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E1648" s="11" t="str" cm="1">
-        <f t="array" ref="E1648">IF(C1648="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1648)*(工作表2!B:B=D1648), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1649" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E1649" s="11" t="str" cm="1">
-        <f t="array" ref="E1649">IF(C1649="", "", IFERROR(INDEX(工作表2!C:C, MATCH(1, (工作表2!A:A=C1649)*(工作表2!B:B=D1649), 0)),""))</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D1649" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D1556" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A102" r:id="rId1" display="https://tpimage.91app.com/adidas/AI Sample/雙面外套/H14121_F_Fin_Model_eCom.jpg" xr:uid="{968052BF-3091-4644-95CE-662AAF5669DA}"/>
-    <hyperlink ref="A376" r:id="rId2" xr:uid="{A976BAF2-1A0B-469E-8DA1-B38BC2852FE9}"/>
-    <hyperlink ref="A374" r:id="rId3" xr:uid="{07E8529F-F1C7-4695-B17B-B99198EB116F}"/>
+    <hyperlink ref="A283" r:id="rId2" xr:uid="{A976BAF2-1A0B-469E-8DA1-B38BC2852FE9}"/>
+    <hyperlink ref="A281" r:id="rId3" xr:uid="{07E8529F-F1C7-4695-B17B-B99198EB116F}"/>
     <hyperlink ref="A12" r:id="rId4" xr:uid="{2A5D0AA2-773D-4EA3-A46E-F81D5AD11A66}"/>
-    <hyperlink ref="A378" r:id="rId5" xr:uid="{524901CC-1460-4F08-8602-F752C7AC0F8F}"/>
+    <hyperlink ref="A285" r:id="rId5" xr:uid="{524901CC-1460-4F08-8602-F752C7AC0F8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -18704,17 +16710,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F8C8A2-9E36-4713-9962-51737FEB24B2}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A2" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="20.36328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -18728,7 +16734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="14" t="s">
         <v>29</v>
       </c>
@@ -18742,7 +16748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="14" t="s">
         <v>29</v>
       </c>
@@ -18756,7 +16762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13">
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
@@ -18770,7 +16776,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -18784,7 +16790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13">
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
@@ -18798,7 +16804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -18812,7 +16818,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13">
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" s="14" t="s">
         <v>29</v>
       </c>
@@ -18826,7 +16832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13">
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
@@ -18840,7 +16846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13">
+    <row r="10" spans="1:4" ht="16">
       <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
@@ -18854,7 +16860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13">
+    <row r="11" spans="1:4" ht="16">
       <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
@@ -18868,7 +16874,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13">
+    <row r="12" spans="1:4" ht="16">
       <c r="A12" s="14" t="s">
         <v>29</v>
       </c>
@@ -18879,7 +16885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13">
+    <row r="13" spans="1:4" ht="16">
       <c r="A13" s="14" t="s">
         <v>29</v>
       </c>
@@ -18890,7 +16896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="14" t="s">
         <v>29</v>
       </c>
@@ -18901,7 +16907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="14" t="s">
         <v>29</v>
       </c>
@@ -18912,7 +16918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13">
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="14" t="s">
         <v>29</v>
       </c>
@@ -18923,7 +16929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13">
+    <row r="17" spans="1:4" ht="16">
       <c r="A17" s="14" t="s">
         <v>29</v>
       </c>
@@ -18934,7 +16940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13">
+    <row r="18" spans="1:4" ht="16">
       <c r="A18" s="14" t="s">
         <v>29</v>
       </c>
@@ -18945,7 +16951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13">
+    <row r="19" spans="1:4" ht="16">
       <c r="A19" s="14" t="s">
         <v>29</v>
       </c>
@@ -18956,7 +16962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13">
+    <row r="20" spans="1:4" ht="16">
       <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
@@ -18967,7 +16973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13">
+    <row r="21" spans="1:4" ht="16">
       <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
@@ -18978,7 +16984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13">
+    <row r="22" spans="1:4" ht="16">
       <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
@@ -18989,7 +16995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13">
+    <row r="23" spans="1:4" ht="16">
       <c r="A23" s="14" t="s">
         <v>29</v>
       </c>
@@ -19003,7 +17009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13">
+    <row r="24" spans="1:4" ht="16">
       <c r="A24" s="14" t="s">
         <v>29</v>
       </c>
@@ -19017,7 +17023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13">
+    <row r="25" spans="1:4" ht="16">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -19031,12 +17037,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13">
+    <row r="26" spans="1:4" ht="16">
       <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -19045,7 +17051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13">
+    <row r="27" spans="1:4" ht="16">
       <c r="A27" s="14" t="s">
         <v>29</v>
       </c>
@@ -19059,7 +17065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13">
+    <row r="28" spans="1:4" ht="16">
       <c r="A28" s="14" t="s">
         <v>29</v>
       </c>
@@ -19073,7 +17079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13">
+    <row r="29" spans="1:4" ht="16">
       <c r="A29" s="14" t="s">
         <v>29</v>
       </c>
@@ -19087,12 +17093,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13">
+    <row r="30" spans="1:4" ht="16">
       <c r="A30" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -19101,7 +17107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13">
+    <row r="31" spans="1:4" ht="16">
       <c r="A31" s="14" t="s">
         <v>29</v>
       </c>
@@ -19115,7 +17121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="13.5">
+    <row r="32" spans="1:4" ht="16">
       <c r="A32" s="14" t="s">
         <v>29</v>
       </c>
@@ -19129,7 +17135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.5">
+    <row r="33" spans="1:4" ht="16">
       <c r="A33" s="14" t="s">
         <v>29</v>
       </c>
@@ -19143,7 +17149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13.5">
+    <row r="34" spans="1:4" ht="16">
       <c r="A34" s="14" t="s">
         <v>29</v>
       </c>
@@ -19157,7 +17163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13">
+    <row r="35" spans="1:4" ht="16">
       <c r="A35" s="14" t="s">
         <v>29</v>
       </c>
@@ -19171,7 +17177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13">
+    <row r="36" spans="1:4" ht="16">
       <c r="A36" s="14" t="s">
         <v>29</v>
       </c>
@@ -19185,7 +17191,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13">
+    <row r="37" spans="1:4" ht="16">
       <c r="A37" s="14" t="s">
         <v>29</v>
       </c>
@@ -19196,7 +17202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13">
+    <row r="38" spans="1:4" ht="16">
       <c r="A38" s="14" t="s">
         <v>29</v>
       </c>
@@ -19207,7 +17213,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13">
+    <row r="39" spans="1:4" ht="16">
       <c r="A39" s="14" t="s">
         <v>29</v>
       </c>
